--- a/testdata/Smoke_WEB_MED_044_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_044_NEWREPORT_01.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C7E3C9-1AE4-414C-8523-34368A96630E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53994A17-54FE-4CD9-A8A9-64CDCF5EA2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4250" yWindow="780" windowWidth="12200" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="9830" windowHeight="9420" tabRatio="603" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
-    <sheet name="update" sheetId="3" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
+    <sheet name="ID" sheetId="5" r:id="rId3"/>
+    <sheet name="update" sheetId="3" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="261">
   <si>
     <t>User</t>
   </si>
@@ -817,13 +818,7 @@
     <t>虎山里</t>
   </si>
   <si>
-    <t>產生編號</t>
-  </si>
-  <si>
     <t>報表編號</t>
-  </si>
-  <si>
-    <t>需手動將產生編號移過來</t>
   </si>
   <si>
     <t>REPORT_ID</t>
@@ -875,9 +870,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -962,7 +954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1015,12 +1007,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2403,833 +2389,848 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:CP4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C91D78-E31C-4E2E-AA04-5F705C527E47}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" style="20" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:94" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:CN4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:92" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="W1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="Y1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>35</v>
       </c>
+      <c r="AE1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="AG1" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AH1" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AK1" s="12" t="s">
         <v>42</v>
       </c>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
       <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
+      <c r="AO1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP1" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="AQ1" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AR1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT1" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="AS1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="AU1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="CC1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="CD1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="CE1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="CF1" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="CG1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="CH1" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="CI1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="CJ1" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="CK1" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="CL1" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="CM1" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="CN1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CO1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CP1" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:94" s="8" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+    <row r="2" spans="1:92" s="8" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>91</v>
       </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="Q2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="S2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="U2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="W2" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL2" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM2" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AP2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="2"/>
+      <c r="BR2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BS2" s="2"/>
+      <c r="BT2" s="2"/>
+      <c r="BU2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CG2" s="2"/>
+      <c r="CH2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA2" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI2" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM2" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN2" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO2" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP2" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="AQ2" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR2" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS2" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT2" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="2"/>
-      <c r="BM2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BP2" s="2"/>
-      <c r="BQ2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BR2" s="2"/>
-      <c r="BS2" s="2"/>
-      <c r="BT2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BU2" s="2"/>
-      <c r="BV2" s="2"/>
-      <c r="BW2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BY2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="BZ2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="CB2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="CE2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="CF2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="CG2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="CH2" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="CI2" s="2"/>
-      <c r="CJ2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CK2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="CL2" s="2"/>
-      <c r="CM2" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="CM2" s="2"/>
       <c r="CN2" s="2"/>
-      <c r="CO2" s="2"/>
-      <c r="CP2" s="2"/>
     </row>
-    <row r="3" spans="1:94" s="10" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" s="16" t="s">
+    <row r="3" spans="1:92" s="10" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>139</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>143</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="K3" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="X3" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="W3" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>159</v>
+      </c>
       <c r="Y3" s="13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Z3" s="13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AB3" s="13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AD3" s="13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AE3" s="13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AF3" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AG3" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH3" s="13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AI3" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AJ3" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AK3" s="13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AL3" s="13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AM3" s="13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AN3" s="13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AO3" s="13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AP3" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AQ3" s="13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AR3" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="AS3" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT3" s="13" t="s">
         <v>179</v>
       </c>
+      <c r="AS3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="AU3" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AW3" s="13" t="s">
+        <v>184</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AY3" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BF3" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="BH3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="BI3" s="2" t="s">
-        <v>194</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="BI3" s="2"/>
       <c r="BJ3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="BK3" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="BL3" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="BM3" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="BN3" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BP3" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BQ3" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BS3" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BT3" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BU3" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="BV3" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="BW3" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="BX3" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="BY3" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="BZ3" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="CA3" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="CB3" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="CC3" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="CD3" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="CE3" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="CF3" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="CG3" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="CH3" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="CI3" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="CJ3" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="CK3" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="CL3" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="CM3" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="CN3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="CO3" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="CP3" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:94" s="6" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20">
-        <v>1120111004010</v>
-      </c>
-      <c r="C4" s="17">
+    <row r="4" spans="1:92" s="6" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="17">
+        <v>1017</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="17">
-        <v>1017</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="11"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2">
+        <v>3</v>
+      </c>
       <c r="L4" s="2"/>
-      <c r="M4" s="2">
-        <v>3</v>
-      </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -3239,8 +3240,8 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
       <c r="AA4" s="13"/>
@@ -3261,13 +3262,13 @@
       <c r="AP4" s="13"/>
       <c r="AQ4" s="13"/>
       <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
+      <c r="AW4" s="13"/>
       <c r="AX4" s="2"/>
-      <c r="AY4" s="13"/>
+      <c r="AY4" s="2"/>
       <c r="AZ4" s="2"/>
       <c r="BA4" s="2"/>
       <c r="BB4" s="2"/>
@@ -3309,8 +3310,6 @@
       <c r="CL4" s="2"/>
       <c r="CM4" s="2"/>
       <c r="CN4" s="2"/>
-      <c r="CO4" s="2"/>
-      <c r="CP4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3318,7 +3317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CN1"/>
   <sheetViews>
@@ -3336,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="2">
@@ -3361,7 +3360,7 @@
         <v>2</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M1" s="2">
         <v>12345</v>
@@ -3406,10 +3405,10 @@
         <v>-20</v>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AC1" s="13">
         <v>-10</v>
@@ -3443,7 +3442,7 @@
         <v>-10</v>
       </c>
       <c r="AP1" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AQ1" s="13">
         <v>3</v>
@@ -3455,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AU1" s="2"/>
       <c r="AV1" s="2"/>
@@ -3491,31 +3490,31 @@
         <v>0</v>
       </c>
       <c r="BL1" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="BM1" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="BN1" s="2" t="s">
         <v>88</v>
       </c>
       <c r="BO1" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BP1" s="2" t="s">
         <v>244</v>
       </c>
       <c r="BQ1" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BR1" s="2" t="b">
         <v>1</v>
       </c>
       <c r="BS1" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="BT1" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BU1" s="2">
         <v>3</v>
@@ -3541,13 +3540,13 @@
         <v>236</v>
       </c>
       <c r="CJ1" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="CK1" s="2">
         <v>48</v>
       </c>
       <c r="CL1" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="CM1" s="2"/>
       <c r="CN1" s="2"/>

--- a/testdata/Smoke_WEB_MED_044_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_044_NEWREPORT_01.xlsx
@@ -8,23 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53994A17-54FE-4CD9-A8A9-64CDCF5EA2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABB7DD7-B264-4322-B01A-AA610997A093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="9830" windowHeight="9420" tabRatio="603" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2230" yWindow="260" windowWidth="9830" windowHeight="9420" tabRatio="603" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
-    <sheet name="ID" sheetId="5" r:id="rId3"/>
-    <sheet name="update" sheetId="3" r:id="rId4"/>
-    <sheet name="工作表1" sheetId="4" r:id="rId5"/>
+    <sheet name="update" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="259">
   <si>
     <t>User</t>
   </si>
@@ -816,12 +815,6 @@
   </si>
   <si>
     <t>虎山里</t>
-  </si>
-  <si>
-    <t>報表編號</t>
-  </si>
-  <si>
-    <t>REPORT_ID</t>
   </si>
   <si>
     <t>全測試 性別:女性 HIV通報:1,0</t>
@@ -1341,7 +1334,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:CN5"/>
+  <dimension ref="A1:CN4"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -2378,9 +2371,6 @@
       <c r="CM4" s="2"/>
       <c r="CN4" s="2"/>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.3">
-      <c r="A5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2389,46 +2379,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C91D78-E31C-4E2E-AA04-5F705C527E47}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:CN4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:CN4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -3317,8 +3272,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CN1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3335,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="2">
@@ -3360,7 +3315,7 @@
         <v>2</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M1" s="2">
         <v>12345</v>
@@ -3405,10 +3360,10 @@
         <v>-20</v>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC1" s="13">
         <v>-10</v>
@@ -3442,7 +3397,7 @@
         <v>-10</v>
       </c>
       <c r="AP1" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ1" s="13">
         <v>3</v>
@@ -3454,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AU1" s="2"/>
       <c r="AV1" s="2"/>
@@ -3490,31 +3445,31 @@
         <v>0</v>
       </c>
       <c r="BL1" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="BM1" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BN1" s="2" t="s">
         <v>88</v>
       </c>
       <c r="BO1" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="BP1" s="2" t="s">
         <v>244</v>
       </c>
       <c r="BQ1" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="BR1" s="2" t="b">
         <v>1</v>
       </c>
       <c r="BS1" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BT1" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BU1" s="2">
         <v>3</v>
@@ -3540,13 +3495,13 @@
         <v>236</v>
       </c>
       <c r="CJ1" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="CK1" s="2">
         <v>48</v>
       </c>
       <c r="CL1" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="CM1" s="2"/>
       <c r="CN1" s="2"/>

--- a/testdata/Smoke_WEB_MED_044_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_044_NEWREPORT_01.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABB7DD7-B264-4322-B01A-AA610997A093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFE22E1-1631-4EFE-B0D5-1D3C7E99D207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2230" yWindow="260" windowWidth="9830" windowHeight="9420" tabRatio="603" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="560" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
     <sheet name="update" sheetId="4" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="279">
   <si>
     <t>User</t>
   </si>
@@ -857,6 +856,87 @@
   </si>
   <si>
     <t>測試不詳</t>
+  </si>
+  <si>
+    <t>性別:女性 HIV通報: 1,0
+未填補充資料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">性別:男性 HIV通報:2,3,4 未填細項 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>044</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試醫師</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z987654321</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國70/06/02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新竹市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>香山區</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陰性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國60/09/02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未確定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>醫院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1334,10 +1414,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:CN4"/>
+  <dimension ref="A1:CN7"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:CN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2371,6 +2451,570 @@
       <c r="CM4" s="2"/>
       <c r="CN4" s="2"/>
     </row>
+    <row r="5" spans="1:92" s="6" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="M5" s="2">
+        <v>12345</v>
+      </c>
+      <c r="N5" s="2">
+        <v>54321</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>-10</v>
+      </c>
+      <c r="T5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>-10</v>
+      </c>
+      <c r="V5" s="2">
+        <v>-10</v>
+      </c>
+      <c r="W5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>-20</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB5" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>-10</v>
+      </c>
+      <c r="AD5" s="13">
+        <v>-10</v>
+      </c>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13">
+        <v>-10</v>
+      </c>
+      <c r="AJ5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="13">
+        <v>22</v>
+      </c>
+      <c r="AM5" s="13">
+        <v>23</v>
+      </c>
+      <c r="AN5" s="13">
+        <v>24</v>
+      </c>
+      <c r="AO5" s="13">
+        <v>-10</v>
+      </c>
+      <c r="AP5" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQ5" s="13">
+        <v>3</v>
+      </c>
+      <c r="AR5" s="13">
+        <v>2.58</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="AX5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>-30</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>-28</v>
+      </c>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="BK5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BM5" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="BN5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BO5" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="BP5" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="BQ5" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="BR5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BT5" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="BU5" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV5" s="2">
+        <v>-15</v>
+      </c>
+      <c r="BW5" s="2"/>
+      <c r="BX5" s="2"/>
+      <c r="BY5" s="2"/>
+      <c r="BZ5" s="2"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="2"/>
+      <c r="CD5" s="2"/>
+      <c r="CE5" s="2"/>
+      <c r="CF5" s="2"/>
+      <c r="CG5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="CH5" s="2"/>
+      <c r="CI5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="CJ5" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="CK5" s="2">
+        <v>48</v>
+      </c>
+      <c r="CL5" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="CM5" s="2"/>
+      <c r="CN5" s="2"/>
+    </row>
+    <row r="6" spans="1:92" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M6" s="2">
+        <v>12345</v>
+      </c>
+      <c r="N6" s="2">
+        <v>54321</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>-10</v>
+      </c>
+      <c r="T6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>-10</v>
+      </c>
+      <c r="V6" s="2">
+        <v>-10</v>
+      </c>
+      <c r="W6" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC6" s="13">
+        <v>-10</v>
+      </c>
+      <c r="AD6" s="13">
+        <v>-10</v>
+      </c>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13">
+        <v>-10</v>
+      </c>
+      <c r="AJ6" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="13">
+        <v>25</v>
+      </c>
+      <c r="AM6" s="13">
+        <v>26</v>
+      </c>
+      <c r="AN6" s="13">
+        <v>27</v>
+      </c>
+      <c r="AO6" s="13">
+        <v>-10</v>
+      </c>
+      <c r="AP6" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ6" s="13">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="13">
+        <v>2.58</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="AX6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="2"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="2"/>
+      <c r="BP6" s="2"/>
+      <c r="BQ6" s="2"/>
+      <c r="BR6" s="2"/>
+      <c r="BS6" s="2"/>
+      <c r="BT6" s="2"/>
+      <c r="BU6" s="2"/>
+      <c r="BV6" s="2"/>
+      <c r="BW6" s="2"/>
+      <c r="BX6" s="2"/>
+      <c r="BY6" s="2"/>
+      <c r="BZ6" s="2"/>
+      <c r="CA6" s="2"/>
+      <c r="CB6" s="2"/>
+      <c r="CC6" s="2"/>
+      <c r="CD6" s="2"/>
+      <c r="CE6" s="2"/>
+      <c r="CF6" s="2"/>
+      <c r="CG6" s="2"/>
+      <c r="CH6" s="2"/>
+      <c r="CI6" s="2"/>
+      <c r="CJ6" s="2"/>
+      <c r="CK6" s="2"/>
+      <c r="CL6" s="2"/>
+      <c r="CM6" s="2"/>
+      <c r="CN6" s="2"/>
+    </row>
+    <row r="7" spans="1:92" ht="29" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="M7" s="2">
+        <v>12345</v>
+      </c>
+      <c r="N7" s="2">
+        <v>54321</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2">
+        <v>-20</v>
+      </c>
+      <c r="T7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>-20</v>
+      </c>
+      <c r="V7" s="2">
+        <v>-20</v>
+      </c>
+      <c r="W7" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL7" s="13">
+        <v>31</v>
+      </c>
+      <c r="AM7" s="13">
+        <v>32</v>
+      </c>
+      <c r="AN7" s="13">
+        <v>33</v>
+      </c>
+      <c r="AO7" s="13">
+        <v>-20</v>
+      </c>
+      <c r="AP7" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AW7" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="AX7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="2"/>
+      <c r="BL7" s="2"/>
+      <c r="BM7" s="2"/>
+      <c r="BN7" s="2"/>
+      <c r="BO7" s="2"/>
+      <c r="BP7" s="2"/>
+      <c r="BQ7" s="2"/>
+      <c r="BR7" s="2"/>
+      <c r="BS7" s="2"/>
+      <c r="BT7" s="2"/>
+      <c r="BU7" s="2"/>
+      <c r="BV7" s="2"/>
+      <c r="BW7" s="2"/>
+      <c r="BX7" s="2"/>
+      <c r="BY7" s="2"/>
+      <c r="BZ7" s="2"/>
+      <c r="CA7" s="2"/>
+      <c r="CB7" s="2"/>
+      <c r="CC7" s="2"/>
+      <c r="CD7" s="2"/>
+      <c r="CE7" s="2"/>
+      <c r="CF7" s="2"/>
+      <c r="CG7" s="2"/>
+      <c r="CH7" s="2"/>
+      <c r="CI7" s="2"/>
+      <c r="CJ7" s="2"/>
+      <c r="CK7" s="2"/>
+      <c r="CL7" s="2"/>
+      <c r="CM7" s="2"/>
+      <c r="CN7" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2380,10 +3024,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:CN4"/>
+  <dimension ref="A1:CN5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -3266,245 +3910,107 @@
       <c r="CM4" s="2"/>
       <c r="CN4" s="2"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:CN1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:92" s="6" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="2">
+    <row r="5" spans="1:92" s="6" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="17">
+        <v>1017</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1" s="2">
-        <v>2</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="M1" s="2">
-        <v>12345</v>
-      </c>
-      <c r="N1" s="2">
-        <v>54321</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q1" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R1" s="2">
-        <v>-1</v>
-      </c>
-      <c r="S1" s="2">
-        <v>-10</v>
-      </c>
-      <c r="T1" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U1" s="2">
-        <v>-10</v>
-      </c>
-      <c r="V1" s="2">
-        <v>-10</v>
-      </c>
-      <c r="W1" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y1" s="13">
-        <v>8</v>
-      </c>
-      <c r="Z1" s="13">
-        <v>-20</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC1" s="13">
-        <v>-10</v>
-      </c>
-      <c r="AD1" s="13">
-        <v>-10</v>
-      </c>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13">
-        <v>-10</v>
-      </c>
-      <c r="AJ1" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK1" s="13">
-        <v>1</v>
-      </c>
-      <c r="AL1" s="13">
-        <v>22</v>
-      </c>
-      <c r="AM1" s="13">
-        <v>23</v>
-      </c>
-      <c r="AN1" s="13">
-        <v>24</v>
-      </c>
-      <c r="AO1" s="13">
-        <v>-10</v>
-      </c>
-      <c r="AP1" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="AQ1" s="13">
-        <v>3</v>
-      </c>
-      <c r="AR1" s="13">
-        <v>2.58</v>
-      </c>
-      <c r="AS1" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="AX1" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY1" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="BA1" s="2">
-        <v>-30</v>
-      </c>
-      <c r="BB1" s="2">
-        <v>-28</v>
-      </c>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="BK1" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="BR1" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="BU1" s="2">
-        <v>3</v>
-      </c>
-      <c r="BV1" s="2">
-        <v>-15</v>
-      </c>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="BY1" s="2"/>
-      <c r="BZ1" s="2"/>
-      <c r="CA1" s="2"/>
-      <c r="CB1" s="2"/>
-      <c r="CC1" s="2"/>
-      <c r="CD1" s="2"/>
-      <c r="CE1" s="2"/>
-      <c r="CF1" s="2"/>
-      <c r="CG1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="CH1" s="2"/>
-      <c r="CI1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="CK1" s="2">
-        <v>48</v>
-      </c>
-      <c r="CL1" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="CM1" s="2"/>
-      <c r="CN1" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="2"/>
+      <c r="BQ5" s="2"/>
+      <c r="BR5" s="2"/>
+      <c r="BS5" s="2"/>
+      <c r="BT5" s="2"/>
+      <c r="BU5" s="2"/>
+      <c r="BV5" s="2"/>
+      <c r="BW5" s="2"/>
+      <c r="BX5" s="2"/>
+      <c r="BY5" s="2"/>
+      <c r="BZ5" s="2"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="2"/>
+      <c r="CD5" s="2"/>
+      <c r="CE5" s="2"/>
+      <c r="CF5" s="2"/>
+      <c r="CG5" s="2"/>
+      <c r="CH5" s="2"/>
+      <c r="CI5" s="2"/>
+      <c r="CJ5" s="2"/>
+      <c r="CK5" s="2"/>
+      <c r="CL5" s="2"/>
+      <c r="CM5" s="2"/>
+      <c r="CN5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/testdata/Smoke_WEB_MED_044_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_044_NEWREPORT_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFE22E1-1631-4EFE-B0D5-1D3C7E99D207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2F03EA-BD85-41B1-A2CC-B6F273A16542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="560" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="160" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="286">
   <si>
     <t>User</t>
   </si>
@@ -938,12 +938,39 @@
     <t>醫院</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>預期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值設定須為文字/ True 或 False</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPECTED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>False</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增修限制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -978,6 +1005,13 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1027,7 +1061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1083,6 +1117,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1371,12 +1411,12 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1414,74 +1454,75 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:CN7"/>
+  <dimension ref="A1:CO7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:CN7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="16" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.796875" customWidth="1"/>
-    <col min="20" max="20" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="44" width="18.5" customWidth="1"/>
-    <col min="45" max="46" width="22.19921875" customWidth="1"/>
-    <col min="47" max="47" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="32.59765625" customWidth="1"/>
-    <col min="49" max="49" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="30.8984375" customWidth="1"/>
-    <col min="51" max="51" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="26.3984375" customWidth="1"/>
-    <col min="54" max="54" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="26.3984375" customWidth="1"/>
-    <col min="57" max="57" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.09765625" customWidth="1"/>
-    <col min="60" max="60" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="28.796875" customWidth="1"/>
-    <col min="62" max="62" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="63" max="68" width="26" customWidth="1"/>
-    <col min="69" max="70" width="9.59765625" customWidth="1"/>
-    <col min="71" max="71" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="76" max="77" width="22.19921875" customWidth="1"/>
-    <col min="78" max="78" width="27.8984375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="33.3984375" bestFit="1" customWidth="1"/>
-    <col min="80" max="81" width="22.19921875" customWidth="1"/>
-    <col min="82" max="82" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="83" max="84" width="32.59765625" customWidth="1"/>
-    <col min="85" max="85" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="31" bestFit="1" customWidth="1"/>
-    <col min="88" max="91" width="31" customWidth="1"/>
-    <col min="92" max="92" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.796875" customWidth="1"/>
+    <col min="21" max="21" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="45" width="18.5" customWidth="1"/>
+    <col min="46" max="47" width="22.19921875" customWidth="1"/>
+    <col min="48" max="48" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="32.59765625" customWidth="1"/>
+    <col min="50" max="50" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="30.8984375" customWidth="1"/>
+    <col min="52" max="52" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.3984375" customWidth="1"/>
+    <col min="55" max="55" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="26.3984375" customWidth="1"/>
+    <col min="58" max="58" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.09765625" customWidth="1"/>
+    <col min="61" max="61" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="28.796875" customWidth="1"/>
+    <col min="63" max="63" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="64" max="69" width="26" customWidth="1"/>
+    <col min="70" max="71" width="9.59765625" customWidth="1"/>
+    <col min="72" max="72" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="29.09765625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="22.19921875" customWidth="1"/>
+    <col min="79" max="79" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="33.3984375" bestFit="1" customWidth="1"/>
+    <col min="81" max="82" width="22.19921875" customWidth="1"/>
+    <col min="83" max="83" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="32.59765625" customWidth="1"/>
+    <col min="86" max="86" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="31" bestFit="1" customWidth="1"/>
+    <col min="89" max="92" width="31" customWidth="1"/>
+    <col min="93" max="93" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:93" s="6" customFormat="1" ht="43.5" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -1491,493 +1532,499 @@
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AC1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AK1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="12"/>
       <c r="AM1" s="12"/>
       <c r="AN1" s="12"/>
-      <c r="AO1" s="12" t="s">
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AR1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AS1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AX1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CH1" s="5" t="s">
+      <c r="CI1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:92" s="8" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:93" s="8" customFormat="1" ht="96" customHeight="1">
       <c r="A2" s="13"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="Y2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Z2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="AA2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AB2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AC2" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="AD2" s="13" t="s">
         <v>103</v>
       </c>
       <c r="AE2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AG2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AH2" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="AI2" s="13" t="s">
         <v>107</v>
       </c>
       <c r="AJ2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK2" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="AK2" s="13" t="s">
+      <c r="AL2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="AL2" s="13" t="s">
+      <c r="AM2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="AM2" s="13" t="s">
+      <c r="AN2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="AN2" s="13" t="s">
+      <c r="AO2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="AO2" s="13" t="s">
+      <c r="AP2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AP2" s="13" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="AQ2" s="13" t="s">
+      <c r="AR2" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="AR2" s="13" t="s">
+      <c r="AS2" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="AV2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="BB2" s="2" t="s">
         <v>120</v>
       </c>
       <c r="BC2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD2" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="BE2" s="2" t="s">
         <v>122</v>
       </c>
       <c r="BF2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG2" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="BH2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="BI2" s="2"/>
+      <c r="BI2" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="BJ2" s="2"/>
-      <c r="BK2" s="2" t="s">
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BN2" s="2"/>
-      <c r="BO2" s="2" t="s">
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BP2" s="2"/>
       <c r="BQ2" s="2"/>
-      <c r="BR2" s="2" t="s">
+      <c r="BR2" s="2"/>
+      <c r="BS2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BS2" s="2"/>
       <c r="BT2" s="2"/>
-      <c r="BU2" s="2" t="s">
+      <c r="BU2" s="2"/>
+      <c r="BV2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BW2" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="BX2" s="2" t="s">
         <v>131</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BZ2" s="2" t="s">
         <v>132</v>
       </c>
       <c r="CA2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="CB2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="CB2" s="2" t="s">
+      <c r="CC2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CC2" s="2" t="s">
+      <c r="CD2" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="CE2" s="2" t="s">
         <v>117</v>
       </c>
       <c r="CF2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CG2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="CG2" s="2"/>
-      <c r="CH2" s="2" t="s">
+      <c r="CH2" s="2"/>
+      <c r="CI2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CI2" s="2"/>
       <c r="CJ2" s="2"/>
-      <c r="CK2" s="2" t="s">
+      <c r="CK2" s="2"/>
+      <c r="CL2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="CL2" s="2"/>
       <c r="CM2" s="2"/>
       <c r="CN2" s="2"/>
+      <c r="CO2" s="2"/>
     </row>
-    <row r="3" spans="1:92" s="10" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:93" s="10" customFormat="1" ht="43.5" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>136</v>
       </c>
@@ -1987,273 +2034,276 @@
       <c r="C3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="X3" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="Y3" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Z3" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="AA3" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AB3" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AC3" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AD3" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AE3" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AF3" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AG3" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AH3" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="AH3" s="13" t="s">
+      <c r="AI3" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="AI3" s="13" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="AJ3" s="13" t="s">
+      <c r="AK3" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="AK3" s="13" t="s">
+      <c r="AL3" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="AL3" s="13" t="s">
+      <c r="AM3" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="AM3" s="13" t="s">
+      <c r="AN3" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="AN3" s="13" t="s">
+      <c r="AO3" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="AO3" s="13" t="s">
+      <c r="AP3" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="AP3" s="13" t="s">
+      <c r="AQ3" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="AQ3" s="13" t="s">
+      <c r="AR3" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="AR3" s="13" t="s">
+      <c r="AS3" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AW3" s="13" t="s">
+      <c r="AX3" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BI3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2" t="s">
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BL3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BL3" s="2" t="s">
+      <c r="BM3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BM3" s="2" t="s">
+      <c r="BN3" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="BN3" s="2" t="s">
+      <c r="BO3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="BO3" s="2" t="s">
+      <c r="BP3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="BP3" s="2" t="s">
+      <c r="BQ3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="BQ3" s="2" t="s">
+      <c r="BR3" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="BR3" s="2" t="s">
+      <c r="BS3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="BS3" s="2" t="s">
+      <c r="BT3" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="BT3" s="2" t="s">
+      <c r="BU3" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="BU3" s="2" t="s">
+      <c r="BV3" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="BV3" s="2" t="s">
+      <c r="BW3" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="BW3" s="2" t="s">
+      <c r="BX3" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="BX3" s="2" t="s">
+      <c r="BY3" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="BY3" s="2" t="s">
+      <c r="BZ3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="BZ3" s="2" t="s">
+      <c r="CA3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="CA3" s="2" t="s">
+      <c r="CB3" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="CB3" s="2" t="s">
+      <c r="CC3" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="CC3" s="2" t="s">
+      <c r="CD3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="CD3" s="2" t="s">
+      <c r="CE3" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="CE3" s="2" t="s">
+      <c r="CF3" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="CF3" s="2" t="s">
+      <c r="CG3" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="CG3" s="2" t="s">
+      <c r="CH3" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="CH3" s="2" t="s">
+      <c r="CI3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="CI3" s="2" t="s">
+      <c r="CJ3" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="CJ3" s="2" t="s">
+      <c r="CK3" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="CK3" s="2" t="s">
+      <c r="CL3" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="CL3" s="2" t="s">
+      <c r="CM3" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="CM3" s="2" t="s">
+      <c r="CN3" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="CN3" s="2" t="s">
+      <c r="CO3" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:92" s="6" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:93" s="6" customFormat="1" ht="89" customHeight="1">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -2263,78 +2313,78 @@
       <c r="C4" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="2">
+      <c r="D4" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>12345</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>54321</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="Q4" s="2" t="b">
+      <c r="R4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2">
         <v>-20</v>
       </c>
-      <c r="T4" s="2" t="b">
+      <c r="U4" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>-20</v>
       </c>
       <c r="V4" s="2">
         <v>-20</v>
       </c>
-      <c r="W4" s="13" t="b">
+      <c r="W4" s="2">
+        <v>-20</v>
+      </c>
+      <c r="X4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="Y4" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
-      <c r="AA4" s="13" t="s">
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="AB4" s="13"/>
       <c r="AC4" s="13"/>
       <c r="AD4" s="13"/>
-      <c r="AE4" s="13">
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13">
         <v>1</v>
-      </c>
-      <c r="AF4" s="13">
-        <v>-20</v>
       </c>
       <c r="AG4" s="13">
         <v>-20</v>
@@ -2345,98 +2395,100 @@
       <c r="AI4" s="13">
         <v>-20</v>
       </c>
-      <c r="AJ4" s="13" t="b">
+      <c r="AJ4" s="13">
+        <v>-20</v>
+      </c>
+      <c r="AK4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AK4" s="13">
+      <c r="AL4" s="13">
         <v>3</v>
       </c>
-      <c r="AL4" s="13">
+      <c r="AM4" s="13">
         <v>28</v>
       </c>
-      <c r="AM4" s="13">
+      <c r="AN4" s="13">
         <v>29</v>
       </c>
-      <c r="AN4" s="13">
+      <c r="AO4" s="13">
         <v>30</v>
       </c>
-      <c r="AO4" s="13">
+      <c r="AP4" s="13">
         <v>-20</v>
       </c>
-      <c r="AP4" s="13" t="s">
+      <c r="AQ4" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="AQ4" s="13">
+      <c r="AR4" s="13">
         <v>10</v>
       </c>
-      <c r="AR4" s="13">
+      <c r="AS4" s="13">
         <v>3.12</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AT4" s="2">
         <v>2</v>
       </c>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2" t="s">
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="AV4" s="2" t="s">
+      <c r="AW4" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AW4" s="13" t="s">
+      <c r="AX4" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="AX4" s="2" t="b">
+      <c r="AY4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="AZ4" s="2">
         <v>2</v>
       </c>
-      <c r="AZ4" s="2"/>
       <c r="BA4" s="2"/>
       <c r="BB4" s="2"/>
-      <c r="BC4" s="2" t="s">
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="BD4" s="2">
+      <c r="BE4" s="2">
         <v>-30</v>
       </c>
-      <c r="BE4" s="2">
+      <c r="BF4" s="2">
         <v>-28</v>
       </c>
-      <c r="BF4" s="2"/>
       <c r="BG4" s="2"/>
       <c r="BH4" s="2"/>
       <c r="BI4" s="2"/>
-      <c r="BJ4" s="2" t="s">
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="BK4" s="2" t="b">
+      <c r="BL4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="BL4" s="2"/>
       <c r="BM4" s="2"/>
       <c r="BN4" s="2"/>
       <c r="BO4" s="2"/>
-      <c r="BP4" s="2" t="s">
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="BQ4" s="2"/>
       <c r="BR4" s="2"/>
       <c r="BS4" s="2"/>
       <c r="BT4" s="2"/>
-      <c r="BU4" s="2">
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2">
         <v>5</v>
       </c>
-      <c r="BV4" s="2"/>
       <c r="BW4" s="2"/>
       <c r="BX4" s="2"/>
-      <c r="BY4" s="2">
-        <v>-15</v>
-      </c>
+      <c r="BY4" s="2"/>
       <c r="BZ4" s="2">
         <v>-15</v>
       </c>
-      <c r="CA4" s="2"/>
+      <c r="CA4" s="2">
+        <v>-15</v>
+      </c>
       <c r="CB4" s="2"/>
       <c r="CC4" s="2"/>
       <c r="CD4" s="2"/>
@@ -2450,8 +2502,9 @@
       <c r="CL4" s="2"/>
       <c r="CM4" s="2"/>
       <c r="CN4" s="2"/>
+      <c r="CO4" s="2"/>
     </row>
-    <row r="5" spans="1:92" s="6" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:93" s="6" customFormat="1" ht="89" customHeight="1">
       <c r="A5" s="17">
         <v>1</v>
       </c>
@@ -2461,192 +2514,194 @@
       <c r="C5" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="2">
+      <c r="D5" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>2</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>12345</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>54321</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="Q5" s="2" t="b">
+      <c r="R5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2">
         <v>-1</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>-10</v>
       </c>
-      <c r="T5" s="2" t="b">
+      <c r="U5" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="U5" s="2">
-        <v>-10</v>
       </c>
       <c r="V5" s="2">
         <v>-10</v>
       </c>
-      <c r="W5" s="13" t="b">
+      <c r="W5" s="2">
+        <v>-10</v>
+      </c>
+      <c r="X5" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="Y5" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="Y5" s="13">
+      <c r="Z5" s="13">
         <v>8</v>
       </c>
-      <c r="Z5" s="13">
+      <c r="AA5" s="13">
         <v>-20</v>
       </c>
-      <c r="AA5" s="13" t="s">
+      <c r="AB5" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="AB5" s="13" t="s">
+      <c r="AC5" s="13" t="s">
         <v>248</v>
-      </c>
-      <c r="AC5" s="13">
-        <v>-10</v>
       </c>
       <c r="AD5" s="13">
         <v>-10</v>
       </c>
-      <c r="AE5" s="13"/>
+      <c r="AE5" s="13">
+        <v>-10</v>
+      </c>
       <c r="AF5" s="13"/>
       <c r="AG5" s="13"/>
       <c r="AH5" s="13"/>
-      <c r="AI5" s="13">
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13">
         <v>-10</v>
       </c>
-      <c r="AJ5" s="13" t="b">
+      <c r="AK5" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AK5" s="13">
+      <c r="AL5" s="13">
         <v>1</v>
       </c>
-      <c r="AL5" s="13">
+      <c r="AM5" s="13">
         <v>22</v>
       </c>
-      <c r="AM5" s="13">
+      <c r="AN5" s="13">
         <v>23</v>
       </c>
-      <c r="AN5" s="13">
+      <c r="AO5" s="13">
         <v>24</v>
       </c>
-      <c r="AO5" s="13">
+      <c r="AP5" s="13">
         <v>-10</v>
       </c>
-      <c r="AP5" s="13" t="s">
+      <c r="AQ5" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="AQ5" s="13">
+      <c r="AR5" s="13">
         <v>3</v>
       </c>
-      <c r="AR5" s="13">
+      <c r="AS5" s="13">
         <v>2.58</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AT5" s="2">
         <v>1</v>
       </c>
-      <c r="AT5" s="2" t="s">
+      <c r="AU5" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
-      <c r="AW5" s="13" t="s">
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="AX5" s="2" t="b">
+      <c r="AY5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AY5" s="2">
+      <c r="AZ5" s="2">
         <v>1</v>
       </c>
-      <c r="AZ5" s="2" t="s">
+      <c r="BA5" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="BA5" s="2">
+      <c r="BB5" s="2">
         <v>-30</v>
       </c>
-      <c r="BB5" s="2">
+      <c r="BC5" s="2">
         <v>-28</v>
       </c>
-      <c r="BC5" s="2"/>
       <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
       <c r="BH5" s="2"/>
       <c r="BI5" s="2"/>
-      <c r="BJ5" s="2" t="s">
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="BK5" s="2" t="b">
+      <c r="BL5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="BL5" s="2" t="s">
+      <c r="BM5" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="BM5" s="2" t="s">
+      <c r="BN5" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="BN5" s="2" t="s">
+      <c r="BO5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BO5" s="2" t="s">
+      <c r="BP5" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="BP5" s="2" t="s">
+      <c r="BQ5" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="BQ5" s="2" t="s">
+      <c r="BR5" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="BR5" s="2" t="b">
+      <c r="BS5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="BS5" s="2" t="s">
+      <c r="BT5" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="BT5" s="2" t="s">
+      <c r="BU5" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="BU5" s="2">
+      <c r="BV5" s="2">
         <v>3</v>
       </c>
-      <c r="BV5" s="2">
+      <c r="BW5" s="2">
         <v>-15</v>
       </c>
-      <c r="BW5" s="2"/>
       <c r="BX5" s="2"/>
       <c r="BY5" s="2"/>
       <c r="BZ5" s="2"/>
@@ -2656,26 +2711,27 @@
       <c r="CD5" s="2"/>
       <c r="CE5" s="2"/>
       <c r="CF5" s="2"/>
-      <c r="CG5" s="2" t="s">
+      <c r="CG5" s="2"/>
+      <c r="CH5" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="CH5" s="2"/>
-      <c r="CI5" s="2" t="s">
+      <c r="CI5" s="2"/>
+      <c r="CJ5" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="CJ5" s="2" t="s">
+      <c r="CK5" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="CK5" s="2">
+      <c r="CL5" s="2">
         <v>48</v>
       </c>
-      <c r="CL5" s="2" t="s">
+      <c r="CM5" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="CM5" s="2"/>
       <c r="CN5" s="2"/>
+      <c r="CO5" s="2"/>
     </row>
-    <row r="6" spans="1:92" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:93" ht="43.5">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -2685,129 +2741,131 @@
       <c r="C6" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E6" s="2">
+      <c r="D6" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>2</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>12345</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>54321</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="Q6" s="2" t="b">
+      <c r="R6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="R6" s="2">
+      <c r="S6" s="2">
         <v>-1</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="2">
         <v>-10</v>
       </c>
-      <c r="T6" s="2" t="b">
+      <c r="U6" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="U6" s="2">
-        <v>-10</v>
       </c>
       <c r="V6" s="2">
         <v>-10</v>
       </c>
-      <c r="W6" s="13" t="b">
+      <c r="W6" s="2">
+        <v>-10</v>
+      </c>
+      <c r="X6" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="X6" s="13" t="s">
+      <c r="Y6" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
-      <c r="AA6" s="13" t="s">
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="AB6" s="13" t="s">
+      <c r="AC6" s="13" t="s">
         <v>271</v>
-      </c>
-      <c r="AC6" s="13">
-        <v>-10</v>
       </c>
       <c r="AD6" s="13">
         <v>-10</v>
       </c>
-      <c r="AE6" s="13"/>
+      <c r="AE6" s="13">
+        <v>-10</v>
+      </c>
       <c r="AF6" s="13"/>
       <c r="AG6" s="13"/>
       <c r="AH6" s="13"/>
-      <c r="AI6" s="13">
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13">
         <v>-10</v>
       </c>
-      <c r="AJ6" s="13" t="b">
+      <c r="AK6" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AK6" s="13">
+      <c r="AL6" s="13">
         <v>2</v>
       </c>
-      <c r="AL6" s="13">
+      <c r="AM6" s="13">
         <v>25</v>
       </c>
-      <c r="AM6" s="13">
+      <c r="AN6" s="13">
         <v>26</v>
       </c>
-      <c r="AN6" s="13">
+      <c r="AO6" s="13">
         <v>27</v>
       </c>
-      <c r="AO6" s="13">
+      <c r="AP6" s="13">
         <v>-10</v>
       </c>
-      <c r="AP6" s="13" t="s">
+      <c r="AQ6" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="AQ6" s="13">
+      <c r="AR6" s="13">
         <v>3</v>
       </c>
-      <c r="AR6" s="13">
+      <c r="AS6" s="13">
         <v>2.58</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AT6" s="2">
         <v>1</v>
       </c>
-      <c r="AT6" s="2" t="s">
+      <c r="AU6" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
-      <c r="AW6" s="13" t="s">
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="AX6" s="2" t="b">
+      <c r="AY6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AY6" s="2"/>
       <c r="AZ6" s="2"/>
       <c r="BA6" s="2"/>
       <c r="BB6" s="2"/>
@@ -2849,8 +2907,9 @@
       <c r="CL6" s="2"/>
       <c r="CM6" s="2"/>
       <c r="CN6" s="2"/>
+      <c r="CO6" s="2"/>
     </row>
-    <row r="7" spans="1:92" ht="29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:93" ht="29">
       <c r="A7" s="16">
         <v>1</v>
       </c>
@@ -2860,119 +2919,121 @@
       <c r="C7" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E7" s="2">
+      <c r="D7" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>1</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>12345</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>54321</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="Q7" s="2" t="b">
+      <c r="R7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2">
+      <c r="S7" s="2"/>
+      <c r="T7" s="2">
         <v>-20</v>
       </c>
-      <c r="T7" s="2" t="b">
+      <c r="U7" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>-20</v>
       </c>
       <c r="V7" s="2">
         <v>-20</v>
       </c>
-      <c r="W7" s="13" t="b">
+      <c r="W7" s="2">
+        <v>-20</v>
+      </c>
+      <c r="X7" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="X7" s="13" t="s">
+      <c r="Y7" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
-      <c r="AA7" s="13" t="s">
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="AB7" s="13"/>
       <c r="AC7" s="13"/>
       <c r="AD7" s="13"/>
-      <c r="AE7" s="13">
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13">
         <v>1</v>
       </c>
-      <c r="AF7" s="13"/>
       <c r="AG7" s="13"/>
       <c r="AH7" s="13"/>
       <c r="AI7" s="13"/>
-      <c r="AJ7" s="13" t="b">
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AK7" s="13">
+      <c r="AL7" s="13">
         <v>4</v>
       </c>
-      <c r="AL7" s="13">
+      <c r="AM7" s="13">
         <v>31</v>
       </c>
-      <c r="AM7" s="13">
+      <c r="AN7" s="13">
         <v>32</v>
       </c>
-      <c r="AN7" s="13">
+      <c r="AO7" s="13">
         <v>33</v>
       </c>
-      <c r="AO7" s="13">
+      <c r="AP7" s="13">
         <v>-20</v>
       </c>
-      <c r="AP7" s="13" t="s">
+      <c r="AQ7" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="AQ7" s="13"/>
       <c r="AR7" s="13"/>
-      <c r="AS7" s="2">
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="2">
         <v>2</v>
       </c>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2" t="s">
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AW7" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="AW7" s="13" t="s">
+      <c r="AX7" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="AX7" s="2" t="b">
+      <c r="AY7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="AY7" s="2"/>
       <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
       <c r="BB7" s="2"/>
@@ -3014,6 +3075,7 @@
       <c r="CL7" s="2"/>
       <c r="CM7" s="2"/>
       <c r="CN7" s="2"/>
+      <c r="CO7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3024,15 +3086,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:CN5"/>
+  <dimension ref="A1:CO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:93" s="6" customFormat="1" ht="43.5" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -3042,497 +3107,505 @@
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AC1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AK1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="12"/>
       <c r="AM1" s="12"/>
       <c r="AN1" s="12"/>
-      <c r="AO1" s="12" t="s">
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AR1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AS1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AX1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CH1" s="5" t="s">
+      <c r="CI1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:92" s="8" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
+    <row r="2" spans="1:93" s="8" customFormat="1" ht="41.5" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>284</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="13" t="s">
         <v>91</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="Y2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Z2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="AA2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AB2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AC2" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="AD2" s="13" t="s">
         <v>103</v>
       </c>
       <c r="AE2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AG2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AH2" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="AI2" s="13" t="s">
         <v>107</v>
       </c>
       <c r="AJ2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK2" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="AK2" s="13" t="s">
+      <c r="AL2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="AL2" s="13" t="s">
+      <c r="AM2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="AM2" s="13" t="s">
+      <c r="AN2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="AN2" s="13" t="s">
+      <c r="AO2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="AO2" s="13" t="s">
+      <c r="AP2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AP2" s="13" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="AQ2" s="13" t="s">
+      <c r="AR2" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="AR2" s="13" t="s">
+      <c r="AS2" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="AV2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="BB2" s="2" t="s">
         <v>120</v>
       </c>
       <c r="BC2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD2" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="BE2" s="2" t="s">
         <v>122</v>
       </c>
       <c r="BF2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG2" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="BH2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="BI2" s="2"/>
+      <c r="BI2" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="BJ2" s="2"/>
-      <c r="BK2" s="2" t="s">
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BN2" s="2"/>
-      <c r="BO2" s="2" t="s">
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BP2" s="2"/>
       <c r="BQ2" s="2"/>
-      <c r="BR2" s="2" t="s">
+      <c r="BR2" s="2"/>
+      <c r="BS2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BS2" s="2"/>
       <c r="BT2" s="2"/>
-      <c r="BU2" s="2" t="s">
+      <c r="BU2" s="2"/>
+      <c r="BV2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BW2" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="BX2" s="2" t="s">
         <v>131</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BZ2" s="2" t="s">
         <v>132</v>
       </c>
       <c r="CA2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="CB2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="CB2" s="2" t="s">
+      <c r="CC2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CC2" s="2" t="s">
+      <c r="CD2" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="CE2" s="2" t="s">
         <v>117</v>
       </c>
       <c r="CF2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CG2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="CG2" s="2"/>
-      <c r="CH2" s="2" t="s">
+      <c r="CH2" s="2"/>
+      <c r="CI2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CI2" s="2"/>
       <c r="CJ2" s="2"/>
-      <c r="CK2" s="2" t="s">
+      <c r="CK2" s="2"/>
+      <c r="CL2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="CL2" s="2"/>
       <c r="CM2" s="2"/>
       <c r="CN2" s="2"/>
+      <c r="CO2" s="2"/>
     </row>
-    <row r="3" spans="1:92" s="10" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:93" s="10" customFormat="1" ht="58" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>136</v>
       </c>
@@ -3542,273 +3615,276 @@
       <c r="C3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="X3" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="Y3" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Z3" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="AA3" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AB3" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AC3" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AD3" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AE3" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AF3" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AG3" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AH3" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="AH3" s="13" t="s">
+      <c r="AI3" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="AI3" s="13" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="AJ3" s="13" t="s">
+      <c r="AK3" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="AK3" s="13" t="s">
+      <c r="AL3" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="AL3" s="13" t="s">
+      <c r="AM3" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="AM3" s="13" t="s">
+      <c r="AN3" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="AN3" s="13" t="s">
+      <c r="AO3" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="AO3" s="13" t="s">
+      <c r="AP3" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="AP3" s="13" t="s">
+      <c r="AQ3" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="AQ3" s="13" t="s">
+      <c r="AR3" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="AR3" s="13" t="s">
+      <c r="AS3" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AW3" s="13" t="s">
+      <c r="AX3" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BI3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2" t="s">
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BL3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BL3" s="2" t="s">
+      <c r="BM3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BM3" s="2" t="s">
+      <c r="BN3" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="BN3" s="2" t="s">
+      <c r="BO3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="BO3" s="2" t="s">
+      <c r="BP3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="BP3" s="2" t="s">
+      <c r="BQ3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="BQ3" s="2" t="s">
+      <c r="BR3" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="BR3" s="2" t="s">
+      <c r="BS3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="BS3" s="2" t="s">
+      <c r="BT3" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="BT3" s="2" t="s">
+      <c r="BU3" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="BU3" s="2" t="s">
+      <c r="BV3" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="BV3" s="2" t="s">
+      <c r="BW3" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="BW3" s="2" t="s">
+      <c r="BX3" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="BX3" s="2" t="s">
+      <c r="BY3" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="BY3" s="2" t="s">
+      <c r="BZ3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="BZ3" s="2" t="s">
+      <c r="CA3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="CA3" s="2" t="s">
+      <c r="CB3" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="CB3" s="2" t="s">
+      <c r="CC3" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="CC3" s="2" t="s">
+      <c r="CD3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="CD3" s="2" t="s">
+      <c r="CE3" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="CE3" s="2" t="s">
+      <c r="CF3" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="CF3" s="2" t="s">
+      <c r="CG3" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="CG3" s="2" t="s">
+      <c r="CH3" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="CH3" s="2" t="s">
+      <c r="CI3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="CI3" s="2" t="s">
+      <c r="CJ3" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="CJ3" s="2" t="s">
+      <c r="CK3" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="CK3" s="2" t="s">
+      <c r="CL3" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="CL3" s="2" t="s">
+      <c r="CM3" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="CM3" s="2" t="s">
+      <c r="CN3" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="CN3" s="2" t="s">
+      <c r="CO3" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:92" s="6" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:93" s="6" customFormat="1" ht="89" customHeight="1">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -3816,19 +3892,21 @@
         <v>1</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="17">
+      <c r="D4" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="17">
         <v>1017</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
         <v>3</v>
       </c>
-      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -3839,7 +3917,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="13"/>
+      <c r="W4" s="2"/>
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
@@ -3861,12 +3939,12 @@
       <c r="AP4" s="13"/>
       <c r="AQ4" s="13"/>
       <c r="AR4" s="13"/>
-      <c r="AS4" s="2"/>
+      <c r="AS4" s="13"/>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="13"/>
       <c r="AY4" s="2"/>
       <c r="AZ4" s="2"/>
       <c r="BA4" s="2"/>
@@ -3909,8 +3987,9 @@
       <c r="CL4" s="2"/>
       <c r="CM4" s="2"/>
       <c r="CN4" s="2"/>
+      <c r="CO4" s="2"/>
     </row>
-    <row r="5" spans="1:92" s="6" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:93" s="6" customFormat="1" ht="89" customHeight="1">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -3918,19 +3997,21 @@
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="17">
+      <c r="D5" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="17">
         <v>1017</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
         <v>3</v>
       </c>
-      <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -3941,7 +4022,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="13"/>
+      <c r="W5" s="2"/>
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
@@ -3963,12 +4044,12 @@
       <c r="AP5" s="13"/>
       <c r="AQ5" s="13"/>
       <c r="AR5" s="13"/>
-      <c r="AS5" s="2"/>
+      <c r="AS5" s="13"/>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="13"/>
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2"/>
       <c r="BA5" s="2"/>
@@ -4011,6 +4092,7 @@
       <c r="CL5" s="2"/>
       <c r="CM5" s="2"/>
       <c r="CN5" s="2"/>
+      <c r="CO5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/testdata/Smoke_WEB_MED_044_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_044_NEWREPORT_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116C245F-8776-4C03-9095-017E67F12787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1494F6B8-389D-4EE1-8720-AF3853C8A3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="190" windowWidth="14400" windowHeight="9510" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="190" windowWidth="14400" windowHeight="9510" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="499">
   <si>
     <t>User</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>CD4比例(%)</t>
-  </si>
-  <si>
-    <t>查詢方式</t>
   </si>
   <si>
     <t>關鍵字搜尋</t>
@@ -438,13 +435,6 @@
   <si>
     <t>查詢方式: 2
 病患動向: 7</t>
-  </si>
-  <si>
-    <t>前者為TRUE需填寫 可複選
-輸入1~3
-1 國內旅遊史
-2 國外旅遊史
-3 國外居住史</t>
   </si>
   <si>
     <t>旅遊史: 1
@@ -1696,10 +1686,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>需自行算出
 公式19+AN4*3</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1738,22 +1724,74 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>其他無法選</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>性行為,注射藥癮者,接受輸血者,母子垂直感染,血友病,不詳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>False</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有無症狀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有無症狀:TRUE
+需填寫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前者為FALSE需填寫/以現在日期+-N日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIV通報: 2 需填
+填1或2
+1: 抗體免疫層析檢驗法
+2: 西方墨點法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>病患轉院查詢方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>病患轉院關鍵字搜尋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>病患轉院單位縣市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>病患轉院單位類型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前者為TRUE需填寫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他 無法選</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前者為TRUE需填寫
+輸入1~3
+1 國內旅遊史
+2 國外旅遊史
+3 國外居住史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1802,12 +1840,6 @@
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2266,8 +2298,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:CN4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CK3" sqref="CK3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2289,8 +2321,8 @@
     <col min="16" max="16" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.8984375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.796875" customWidth="1"/>
-    <col min="23" max="23" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.796875" customWidth="1"/>
     <col min="24" max="24" width="18.19921875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.5" bestFit="1" customWidth="1"/>
     <col min="26" max="47" width="18.5" customWidth="1"/>
@@ -2341,7 +2373,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>9</v>
@@ -2383,10 +2415,10 @@
         <v>21</v>
       </c>
       <c r="R1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>22</v>
@@ -2395,10 +2427,10 @@
         <v>23</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>26</v>
@@ -2407,7 +2439,7 @@
         <v>27</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>28</v>
+        <v>488</v>
       </c>
       <c r="AA1" s="12" t="s">
         <v>29</v>
@@ -2415,14 +2447,14 @@
       <c r="AB1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="11" t="s">
-        <v>471</v>
+      <c r="AE1" s="13" t="s">
+        <v>469</v>
       </c>
       <c r="AF1" s="13" t="s">
         <v>33</v>
@@ -2467,155 +2499,155 @@
         <v>45</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AW1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="BA1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="BR1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="CF1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CB1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="CH1" s="5" t="s">
+      <c r="CI1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CI1" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="CJ1" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="CK1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CL1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:92" s="8" customFormat="1" ht="96" customHeight="1">
       <c r="A2" s="12"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -2623,7 +2655,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -2633,485 +2665,487 @@
       <c r="R2" s="18"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="V2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="Y2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA2" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="AI2" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="AB2" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="AF2" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AJ2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO2" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="AP2" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="AH2" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM2" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO2" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="AP2" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="AQ2" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="AR2" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU2" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="AX2" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="AW2" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="AY2" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AZ2" s="12"/>
       <c r="BA2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BB2" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="BL2" s="2"/>
       <c r="BM2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BO2" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="BP2" s="2"/>
       <c r="BQ2" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BS2" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>496</v>
+      </c>
       <c r="BT2" s="2"/>
       <c r="BU2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BX2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BW2" s="2" t="s">
+      <c r="BZ2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="BX2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY2" s="2" t="s">
+      <c r="CB2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CF2" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="BZ2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="CB2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CE2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CF2" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="CG2" s="2"/>
       <c r="CH2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="CI2" s="2"/>
       <c r="CJ2" s="2" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="CN2" s="2"/>
     </row>
     <row r="3" spans="1:92" s="10" customFormat="1" ht="43.5" customHeight="1">
       <c r="A3" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="G3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="I3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="K3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="V3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM3" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN3" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO3" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP3" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ3" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR3" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS3" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT3" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU3" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AZ3" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BM3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BN3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BP3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BQ3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="BR3" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="BS3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB3" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC3" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD3" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF3" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG3" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH3" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI3" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ3" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK3" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL3" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM3" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN3" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO3" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP3" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ3" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR3" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS3" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="AT3" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AU3" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AZ3" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="BH3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="BI3" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="BK3" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="BM3" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="BN3" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="BO3" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BP3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="BR3" s="2" t="s">
+      <c r="BT3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BS3" s="2" t="s">
+      <c r="BU3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BT3" s="2" t="s">
+      <c r="BV3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BU3" s="2" t="s">
+      <c r="BW3" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BV3" s="2" t="s">
+      <c r="BX3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BW3" s="2" t="s">
+      <c r="BY3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BX3" s="2" t="s">
+      <c r="BZ3" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="BY3" s="2" t="s">
+      <c r="CA3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="BZ3" s="2" t="s">
+      <c r="CB3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="CA3" s="2" t="s">
+      <c r="CC3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="CB3" s="2" t="s">
+      <c r="CD3" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="CC3" s="2" t="s">
+      <c r="CE3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="CD3" s="2" t="s">
+      <c r="CF3" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="CE3" s="2" t="s">
+      <c r="CG3" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="CF3" s="2" t="s">
+      <c r="CH3" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="CG3" s="2" t="s">
+      <c r="CI3" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="CH3" s="2" t="s">
+      <c r="CJ3" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="CI3" s="2" t="s">
+      <c r="CK3" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="CJ3" s="2" t="s">
+      <c r="CL3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="CK3" s="2" t="s">
+      <c r="CM3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="CL3" s="2" t="s">
+      <c r="CN3" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="CM3" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="CN3" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:92" s="10" customFormat="1" ht="43.5" customHeight="1">
@@ -3123,32 +3157,32 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18">
         <v>3</v>
       </c>
       <c r="G4" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="J4" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N4" s="2">
         <v>12345</v>
@@ -3157,24 +3191,24 @@
         <v>54321</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="18" t="b">
         <v>0</v>
       </c>
       <c r="U4" s="2"/>
-      <c r="V4" s="2">
+      <c r="V4" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
         <v>-20</v>
-      </c>
-      <c r="W4" s="18" t="b">
-        <v>0</v>
       </c>
       <c r="X4" s="2">
         <v>-20</v>
@@ -3186,10 +3220,10 @@
         <v>1</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
@@ -3202,9 +3236,15 @@
       <c r="AI4" s="12">
         <v>-20</v>
       </c>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
+      <c r="AJ4" s="12">
+        <v>-20</v>
+      </c>
+      <c r="AK4" s="12">
+        <v>-20</v>
+      </c>
+      <c r="AL4" s="12">
+        <v>-20</v>
+      </c>
       <c r="AM4" s="18" t="b">
         <v>1</v>
       </c>
@@ -3224,7 +3264,7 @@
         <v>-20</v>
       </c>
       <c r="AS4" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AT4" s="12">
         <v>10</v>
@@ -3237,13 +3277,13 @@
       </c>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AY4" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AZ4" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="BA4" s="18" t="b">
         <v>0</v>
@@ -3267,7 +3307,7 @@
       <c r="BP4" s="2"/>
       <c r="BQ4" s="2"/>
       <c r="BR4" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="2"/>
       <c r="BT4" s="2"/>
@@ -3280,31 +3320,29 @@
       <c r="CA4" s="2"/>
       <c r="CB4" s="2"/>
       <c r="CC4" s="2"/>
-      <c r="CD4" s="2" t="s">
-        <v>306</v>
-      </c>
+      <c r="CD4" s="2"/>
       <c r="CE4" s="2"/>
       <c r="CF4" s="2"/>
       <c r="CG4" s="2"/>
       <c r="CH4" s="2"/>
       <c r="CI4" s="2"/>
       <c r="CJ4" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="CK4" s="2">
         <v>47</v>
       </c>
       <c r="CL4" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="CM4" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="CN4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="13">
+  <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{388E0A73-CB12-4C32-A358-B307A60B5297}">
       <formula1>"True,False"</formula1>
     </dataValidation>
@@ -3317,7 +3355,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{BC65F93A-7D71-4682-8A6E-D1A1B6A87068}">
       <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR4 T4 Z4 AM4 BA4 BM4 W4" xr:uid="{9252E44D-E815-4972-B878-E148DD60F708}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR4 T4 Z4 AM4 BA4 BM4 V4:W4" xr:uid="{9252E44D-E815-4972-B878-E148DD60F708}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4 BB4" xr:uid="{5899D01E-9229-4A5E-9C3F-7F145616472B}">
@@ -3338,11 +3376,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CK4" xr:uid="{082E0D2A-51ED-4A64-8A5F-B77916973C5A}">
       <formula1>"47,48,49"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4" xr:uid="{4A5CFDAE-EF86-493B-9607-514E3AD83FE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:R4" xr:uid="{4A5CFDAE-EF86-493B-9607-514E3AD83FE7}">
       <formula1>INDIRECT(P4)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4" xr:uid="{6FDC398A-F8C5-47E7-B6AD-6A94EFE7D4E4}">
-      <formula1>INDIRECT(Q4)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3410,7 +3445,7 @@
   <dimension ref="A1:CN4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3429,7 +3464,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>9</v>
@@ -3471,10 +3506,10 @@
         <v>21</v>
       </c>
       <c r="R1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>22</v>
@@ -3510,7 +3545,7 @@
         <v>31</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AF1" s="13" t="s">
         <v>33</v>
@@ -3555,165 +3590,165 @@
         <v>45</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AW1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="BA1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="BR1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="CF1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CB1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="CH1" s="5" t="s">
+      <c r="CI1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:92" s="8" customFormat="1" ht="41.5" customHeight="1">
       <c r="A2" s="12"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -3723,198 +3758,198 @@
       <c r="R2" s="18"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AB2" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="AI2" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="AB2" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="AF2" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AJ2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO2" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="AP2" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="AH2" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM2" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO2" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="AP2" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="AQ2" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="AR2" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU2" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="AX2" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="AW2" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="AY2" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AZ2" s="12"/>
       <c r="BA2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BB2" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="BL2" s="2"/>
       <c r="BM2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BO2" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="BP2" s="2"/>
       <c r="BQ2" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS2" s="2"/>
       <c r="BT2" s="2"/>
       <c r="BU2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BX2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BW2" s="2" t="s">
+      <c r="BZ2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="BX2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY2" s="2" t="s">
+      <c r="CB2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CF2" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="BZ2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="CB2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CE2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CF2" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="CG2" s="2"/>
       <c r="CH2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="CI2" s="2"/>
       <c r="CJ2" s="2"/>
       <c r="CK2" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="CL2" s="2"/>
       <c r="CM2" s="2"/>
@@ -3922,280 +3957,280 @@
     </row>
     <row r="3" spans="1:92" s="10" customFormat="1" ht="58" customHeight="1">
       <c r="A3" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="G3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="I3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="K3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="V3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM3" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN3" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO3" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP3" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ3" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR3" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS3" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT3" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU3" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AZ3" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BM3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BN3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BP3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BQ3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="BR3" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="BS3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB3" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC3" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD3" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF3" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG3" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH3" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI3" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ3" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK3" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL3" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM3" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN3" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO3" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP3" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ3" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR3" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS3" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="AT3" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AU3" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AZ3" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="BH3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="BI3" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="BK3" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="BM3" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="BN3" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="BO3" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BP3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="BR3" s="2" t="s">
+      <c r="BT3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BS3" s="2" t="s">
+      <c r="BU3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BT3" s="2" t="s">
+      <c r="BV3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BU3" s="2" t="s">
+      <c r="BW3" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BV3" s="2" t="s">
+      <c r="BX3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BW3" s="2" t="s">
+      <c r="BY3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BX3" s="2" t="s">
+      <c r="BZ3" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="BY3" s="2" t="s">
+      <c r="CA3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="BZ3" s="2" t="s">
+      <c r="CB3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="CA3" s="2" t="s">
+      <c r="CC3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="CB3" s="2" t="s">
+      <c r="CD3" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="CC3" s="2" t="s">
+      <c r="CE3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="CD3" s="2" t="s">
+      <c r="CF3" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="CE3" s="2" t="s">
+      <c r="CG3" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="CF3" s="2" t="s">
+      <c r="CH3" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="CG3" s="2" t="s">
+      <c r="CI3" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="CH3" s="2" t="s">
+      <c r="CJ3" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="CI3" s="2" t="s">
+      <c r="CK3" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="CJ3" s="2" t="s">
+      <c r="CL3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="CK3" s="2" t="s">
+      <c r="CM3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="CL3" s="2" t="s">
+      <c r="CN3" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="CM3" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="CN3" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:92" s="10" customFormat="1" ht="43.5" customHeight="1">
@@ -4207,7 +4242,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="20" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E4" s="18">
         <v>1114</v>
@@ -4259,7 +4294,7 @@
       <c r="AX4" s="2"/>
       <c r="AY4" s="2"/>
       <c r="AZ4" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="BA4" s="18"/>
       <c r="BB4" s="2"/>
@@ -4428,868 +4463,868 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.5">
       <c r="A1" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" t="s">
         <v>239</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" t="s">
         <v>244</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" t="s">
         <v>245</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>246</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>247</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>248</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>249</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>250</v>
-      </c>
-      <c r="R1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="G2" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="H2" t="s">
         <v>254</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="I2" t="s">
         <v>255</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>256</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>257</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>258</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>259</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>260</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>261</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>262</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>262</v>
+      </c>
+      <c r="R2" t="s">
         <v>263</v>
-      </c>
-      <c r="P2" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>264</v>
-      </c>
-      <c r="R2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="G3" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="H3" t="s">
         <v>268</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="I3" t="s">
         <v>269</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>229</v>
+      </c>
+      <c r="K3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L3" t="s">
         <v>270</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>271</v>
       </c>
-      <c r="J3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>272</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>273</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>227</v>
+      </c>
+      <c r="R3" t="s">
         <v>274</v>
-      </c>
-      <c r="O3" t="s">
-        <v>275</v>
-      </c>
-      <c r="P3" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>229</v>
-      </c>
-      <c r="R3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="F4" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="G4" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="H4" t="s">
         <v>280</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="I4" t="s">
         <v>281</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>282</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>283</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>284</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>285</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>286</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>287</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>272</v>
+      </c>
+      <c r="R4" t="s">
         <v>288</v>
-      </c>
-      <c r="O4" t="s">
-        <v>289</v>
-      </c>
-      <c r="P4" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>274</v>
-      </c>
-      <c r="R4" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="G5" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" t="s">
         <v>292</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="I5" t="s">
         <v>293</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>294</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>295</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>296</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>297</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>298</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>299</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>300</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>301</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>302</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>303</v>
-      </c>
-      <c r="R5" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="F6" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="E6" s="21" t="s">
+      <c r="G6" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="H6" t="s">
         <v>308</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="I6" t="s">
         <v>309</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>310</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>311</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>312</v>
       </c>
-      <c r="K6" t="s">
-        <v>313</v>
-      </c>
-      <c r="M6" t="s">
-        <v>314</v>
-      </c>
       <c r="O6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="R6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="F7" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" t="s">
         <v>317</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
         <v>318</v>
       </c>
-      <c r="G7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>319</v>
       </c>
-      <c r="I7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>320</v>
       </c>
-      <c r="K7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M7" t="s">
-        <v>322</v>
-      </c>
       <c r="O7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="F8" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="H8" t="s">
         <v>325</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="I8" t="s">
+        <v>311</v>
+      </c>
+      <c r="J8" t="s">
         <v>326</v>
       </c>
-      <c r="H8" t="s">
+      <c r="M8" t="s">
         <v>327</v>
       </c>
-      <c r="I8" t="s">
-        <v>313</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="O8" t="s">
         <v>328</v>
-      </c>
-      <c r="M8" t="s">
-        <v>329</v>
-      </c>
-      <c r="O8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="F9" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="H9" t="s">
         <v>333</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="J9" t="s">
         <v>334</v>
       </c>
-      <c r="H9" t="s">
+      <c r="M9" t="s">
         <v>335</v>
       </c>
-      <c r="J9" t="s">
+      <c r="O9" t="s">
         <v>336</v>
-      </c>
-      <c r="M9" t="s">
-        <v>337</v>
-      </c>
-      <c r="O9" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="F10" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="E10" s="21" t="s">
+      <c r="H10" t="s">
         <v>341</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="J10" t="s">
         <v>342</v>
       </c>
-      <c r="H10" t="s">
-        <v>343</v>
-      </c>
-      <c r="J10" t="s">
-        <v>344</v>
-      </c>
       <c r="M10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="F11" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="E11" s="21" t="s">
+      <c r="H11" t="s">
         <v>347</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="H11" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="F12" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="E12" s="21" t="s">
+      <c r="H12" t="s">
         <v>352</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="H12" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="F13" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="E13" s="21" t="s">
+      <c r="H13" t="s">
         <v>357</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="H13" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="F14" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="E14" s="21" t="s">
+      <c r="H14" t="s">
         <v>362</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="H14" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="F15" s="21" t="s">
         <v>366</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="F16" s="21" t="s">
         <v>370</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="F17" s="21" t="s">
         <v>374</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="F18" s="21" t="s">
         <v>378</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>381</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>383</v>
       </c>
       <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>386</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>388</v>
       </c>
       <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>389</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>391</v>
       </c>
       <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>392</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>394</v>
       </c>
       <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="21" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F27" s="21"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="21" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="21" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="21" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
       <c r="E32" s="21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -5299,7 +5334,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>

--- a/testdata/Smoke_WEB_MED_044_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_044_NEWREPORT_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1494F6B8-389D-4EE1-8720-AF3853C8A3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35ACAC5-CF77-4105-BD01-F9E12BCAC429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="190" windowWidth="14400" windowHeight="9510" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="0" windowWidth="13890" windowHeight="9620" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,18 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={79BB527D-17CB-4B78-A95B-7F026DF4A641}</author>
+    <author>tc={11409CC0-D1BB-4742-B584-BC9084E1C157}</author>
   </authors>
   <commentList>
     <comment ref="CJ4" authorId="0" shapeId="0" xr:uid="{79BB527D-17CB-4B78-A95B-7F026DF4A641}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    不安全性行為，性行為對象： ,注射藥癮者(不含搖頭族) ,接受輸血者,母子垂直感染 ,血友病 ,不詳 ,其他,</t>
+      </text>
+    </comment>
+    <comment ref="CJ5" authorId="1" shapeId="0" xr:uid="{11409CC0-D1BB-4742-B584-BC9084E1C157}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -100,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="536">
   <si>
     <t>User</t>
   </si>
@@ -804,15 +813,9 @@
     <t>測試姓名</t>
   </si>
   <si>
-    <t>民國60/09/02</t>
-  </si>
-  <si>
     <t>新竹市</t>
   </si>
   <si>
-    <t>香山區</t>
-  </si>
-  <si>
     <t>測試</t>
   </si>
   <si>
@@ -820,9 +823,6 @@
   </si>
   <si>
     <t>台中市</t>
-  </si>
-  <si>
-    <t>醫院</t>
   </si>
   <si>
     <t>醫療院所工作者(非醫事人員)</t>
@@ -1620,9 +1620,6 @@
   <si>
     <t>樂華村</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>海山里</t>
   </si>
   <si>
     <t>填1~4需 , 分隔
@@ -1785,6 +1782,164 @@
 2 國外旅遊史
 3 國外居住史</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃色: 必填項目
+橙色: 由衛生局審核項目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國80/09/02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國70/09/02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魚池鄉</t>
+  </si>
+  <si>
+    <t>大林村</t>
+  </si>
+  <si>
+    <t>士林區</t>
+  </si>
+  <si>
+    <t>百齡里</t>
+  </si>
+  <si>
+    <t>全測試</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前者為TRUE需填寫/   以現在日期+-N日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>填1~4需 , 分隔
+若項目測一項 另一項需填0
+性別: 女性 可填1
+填1不得填2,3,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV通報: 1 
+可複選 以 ,分隔
+若項目測一項 另一項需填0
+1: 抗原/抗體複合型篩檢
+2: 抗體篩檢陽性
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>診所</t>
+  </si>
+  <si>
+    <t>修改必填</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改衛生局審核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病名稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚴重特殊傳染性肺炎(併發症)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿米巴性痢疾</t>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登革熱</t>
+  </si>
+  <si>
+    <t>19CVS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>結核病</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>044</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>061</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅毒</t>
+  </si>
+  <si>
+    <t>090</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋病</t>
+  </si>
+  <si>
+    <t>098</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉤端螺旋體病</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠疫</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>退伍軍人病</t>
+  </si>
+  <si>
+    <t>4828</t>
+  </si>
+  <si>
+    <t>霍亂</t>
+  </si>
+  <si>
+    <t>001</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1997,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1858,6 +2013,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,41 +2078,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2242,6 +2403,9 @@
   <threadedComment ref="CJ4" dT="2023-11-21T06:56:32.78" personId="{8030343C-8E51-4787-BE4C-A7158E403FF5}" id="{79BB527D-17CB-4B78-A95B-7F026DF4A641}">
     <text>不安全性行為，性行為對象： ,注射藥癮者(不含搖頭族) ,接受輸血者,母子垂直感染 ,血友病 ,不詳 ,其他,</text>
   </threadedComment>
+  <threadedComment ref="CJ5" dT="2023-11-21T06:56:32.78" personId="{8030343C-8E51-4787-BE4C-A7158E403FF5}" id="{11409CC0-D1BB-4742-B584-BC9084E1C157}">
+    <text>不安全性行為，性行為對象： ,注射藥癮者(不含搖頭族) ,接受輸血者,母子垂直感染 ,血友病 ,不詳 ,其他,</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2296,18 +2460,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:CN4"/>
+  <dimension ref="A1:CN5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="11" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="11" customWidth="1"/>
     <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -2363,7 +2525,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:92" s="6" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2372,10 +2534,10 @@
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -2414,7 +2576,7 @@
       <c r="Q1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="21" t="s">
         <v>67</v>
       </c>
       <c r="S1" s="2" t="s">
@@ -2438,68 +2600,68 @@
       <c r="Y1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="AA1" s="12" t="s">
+      <c r="Z1" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AE1" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="AW1" s="3" t="s">
         <v>46</v>
@@ -2510,7 +2672,7 @@
       <c r="AY1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="BA1" s="3" t="s">
@@ -2595,16 +2757,16 @@
         <v>78</v>
       </c>
       <c r="CB1" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="CC1" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="CD1" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="CE1" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="CF1" s="2" t="s">
         <v>79</v>
@@ -2619,7 +2781,7 @@
         <v>82</v>
       </c>
       <c r="CJ1" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="CK1" s="2" t="s">
         <v>84</v>
@@ -2634,16 +2796,16 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:92" s="8" customFormat="1" ht="96" customHeight="1">
-      <c r="A2" s="12"/>
+    <row r="2" spans="1:92" s="8" customFormat="1" ht="110.5" customHeight="1">
+      <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="E2" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>89</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -2662,19 +2824,19 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="18"/>
+      <c r="R2" s="21"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
         <v>92</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>93</v>
+        <v>504</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>92</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>95</v>
@@ -2682,90 +2844,90 @@
       <c r="Y2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA2" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AA2" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="AD2" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AG2" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="AG2" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="AH2" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO2" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="AP2" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="AQ2" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="AR2" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="AW2" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="AZ2" s="12"/>
+        <v>472</v>
+      </c>
+      <c r="AZ2" s="2"/>
       <c r="BA2" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="BC2" s="2" t="s">
         <v>107</v>
@@ -2812,7 +2974,7 @@
         <v>92</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="BT2" s="2"/>
       <c r="BU2" s="2" t="s">
@@ -2857,21 +3019,21 @@
       </c>
       <c r="CI2" s="2"/>
       <c r="CJ2" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="CN2" s="2"/>
     </row>
     <row r="3" spans="1:92" s="10" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2881,9 +3043,9 @@
         <v>125</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="E3" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>126</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -2922,7 +3084,7 @@
       <c r="Q3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="21" t="s">
         <v>189</v>
       </c>
       <c r="S3" s="2" t="s">
@@ -2946,70 +3108,70 @@
       <c r="Y3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AA3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AC3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AD3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AE3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AF3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AG3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AH3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AI3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AK3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AL3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AM3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AN3" s="12" t="s">
+      <c r="AN3" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AO3" s="12" t="s">
+      <c r="AO3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AP3" s="12" t="s">
+      <c r="AP3" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AQ3" s="12" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AR3" s="12" t="s">
+      <c r="AR3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AS3" s="12" t="s">
+      <c r="AS3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AT3" s="12" t="s">
+      <c r="AT3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AU3" s="12" t="s">
+      <c r="AU3" s="2" t="s">
         <v>166</v>
       </c>
       <c r="AV3" s="2" t="s">
@@ -3024,7 +3186,7 @@
       <c r="AY3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AZ3" s="12" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>171</v>
       </c>
       <c r="BA3" s="2" t="s">
@@ -3149,24 +3311,26 @@
       </c>
     </row>
     <row r="4" spans="1:92" s="10" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A4" s="16">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>502</v>
+      </c>
       <c r="D4" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18">
+        <v>413</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21">
         <v>3</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="21" t="s">
         <v>215</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -3182,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>219</v>
+        <v>496</v>
       </c>
       <c r="N4" s="2">
         <v>12345</v>
@@ -3191,20 +3355,22 @@
         <v>54321</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>464</v>
+        <v>346</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>499</v>
       </c>
       <c r="S4" s="2"/>
-      <c r="T4" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="18" t="b">
+      <c r="T4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-20</v>
+      </c>
+      <c r="V4" s="21" t="b">
         <v>0</v>
       </c>
       <c r="W4" s="2">
@@ -3216,105 +3382,119 @@
       <c r="Y4" s="2">
         <v>-20</v>
       </c>
-      <c r="Z4" s="18" t="b">
+      <c r="Z4" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AA4" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12">
+      <c r="AA4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2">
         <v>1</v>
       </c>
-      <c r="AI4" s="12">
+      <c r="AI4" s="2">
         <v>-20</v>
       </c>
-      <c r="AJ4" s="12">
+      <c r="AJ4" s="2">
         <v>-20</v>
       </c>
-      <c r="AK4" s="12">
+      <c r="AK4" s="2">
         <v>-20</v>
       </c>
-      <c r="AL4" s="12">
+      <c r="AL4" s="2">
         <v>-20</v>
       </c>
-      <c r="AM4" s="18" t="b">
+      <c r="AM4" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AN4" s="12">
+      <c r="AN4" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>38</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>39</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>-20</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>10</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>3.12</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="BA4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="2">
         <v>3</v>
       </c>
-      <c r="AO4" s="12">
-        <v>28</v>
-      </c>
-      <c r="AP4" s="12">
-        <v>29</v>
-      </c>
-      <c r="AQ4" s="12">
-        <v>30</v>
-      </c>
-      <c r="AR4" s="12">
-        <v>-20</v>
-      </c>
-      <c r="AS4" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="AT4" s="12">
-        <v>10</v>
-      </c>
-      <c r="AU4" s="12">
-        <v>3.12</v>
-      </c>
-      <c r="AV4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="AY4" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AZ4" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="BA4" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="2"/>
       <c r="BC4" s="2"/>
       <c r="BD4" s="2"/>
       <c r="BE4" s="2"/>
       <c r="BF4" s="2"/>
       <c r="BG4" s="2"/>
       <c r="BH4" s="2"/>
-      <c r="BI4" s="2"/>
-      <c r="BJ4" s="2"/>
-      <c r="BK4" s="2"/>
-      <c r="BL4" s="2"/>
-      <c r="BM4" s="18" t="b">
+      <c r="BI4" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="BJ4" s="2">
+        <v>-40</v>
+      </c>
+      <c r="BK4" s="2">
+        <v>-40</v>
+      </c>
+      <c r="BL4" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="BM4" s="21" t="b">
         <v>1</v>
       </c>
       <c r="BN4" s="2"/>
       <c r="BO4" s="2"/>
       <c r="BP4" s="2"/>
       <c r="BQ4" s="2"/>
-      <c r="BR4" s="18" t="b">
+      <c r="BR4" s="21" t="b">
         <v>0</v>
       </c>
       <c r="BS4" s="2"/>
       <c r="BT4" s="2"/>
-      <c r="BU4" s="2"/>
+      <c r="BU4" s="2">
+        <v>4</v>
+      </c>
       <c r="BV4" s="2"/>
-      <c r="BW4" s="2"/>
-      <c r="BX4" s="2"/>
+      <c r="BW4" s="2">
+        <v>-15</v>
+      </c>
+      <c r="BX4" s="2">
+        <v>-15</v>
+      </c>
       <c r="BY4" s="2"/>
       <c r="BZ4" s="2"/>
       <c r="CA4" s="2"/>
@@ -3327,56 +3507,228 @@
       <c r="CH4" s="2"/>
       <c r="CI4" s="2"/>
       <c r="CJ4" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="CK4" s="2">
         <v>47</v>
       </c>
       <c r="CL4" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="CM4" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="CN4" s="2"/>
+    </row>
+    <row r="5" spans="1:92" s="10" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21">
+        <v>3</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="N5" s="2">
+        <v>12345</v>
+      </c>
+      <c r="O5" s="2">
+        <v>54321</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2">
+        <v>-20</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>-20</v>
+      </c>
+      <c r="Z5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>13</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>30</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>-20</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>-20</v>
+      </c>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>34</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>36</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>-20</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>6</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BA5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="21"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="2"/>
+      <c r="BQ5" s="2"/>
+      <c r="BR5" s="21"/>
+      <c r="BS5" s="2"/>
+      <c r="BT5" s="2"/>
+      <c r="BU5" s="2"/>
+      <c r="BV5" s="2"/>
+      <c r="BW5" s="2"/>
+      <c r="BX5" s="2"/>
+      <c r="BY5" s="2"/>
+      <c r="BZ5" s="2"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="2"/>
+      <c r="CD5" s="2"/>
+      <c r="CE5" s="2"/>
+      <c r="CF5" s="2"/>
+      <c r="CG5" s="2"/>
+      <c r="CH5" s="2"/>
+      <c r="CI5" s="2"/>
+      <c r="CJ5" s="2"/>
+      <c r="CK5" s="2"/>
+      <c r="CL5" s="2"/>
+      <c r="CM5" s="2"/>
+      <c r="CN5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{388E0A73-CB12-4C32-A358-B307A60B5297}">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{388E0A73-CB12-4C32-A358-B307A60B5297}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{7FBB3C53-ED56-4C38-A1F6-A928C33204D0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{7FBB3C53-ED56-4C38-A1F6-A928C33204D0}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{798E632E-B0B1-4AE9-B2C3-CAF0B1212121}">
-      <formula1>"006,010,19CVS,044,061,090,098,100"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{BC65F93A-7D71-4682-8A6E-D1A1B6A87068}">
-      <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR4 T4 Z4 AM4 BA4 BM4 V4:W4" xr:uid="{9252E44D-E815-4972-B878-E148DD60F708}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR4:BR5 T4:T5 Z4:Z5 AM4:AM5 BA4:BA5 BM4:BM5 V4:W5" xr:uid="{9252E44D-E815-4972-B878-E148DD60F708}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4 BB4" xr:uid="{5899D01E-9229-4A5E-9C3F-7F145616472B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L5 BB4:BB5" xr:uid="{5899D01E-9229-4A5E-9C3F-7F145616472B}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH4 AV4 CB4" xr:uid="{1485C6DD-6C12-47CC-92F8-858F5BD936C0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH4:AH5 AV4:AV5 CB4:CB5" xr:uid="{1485C6DD-6C12-47CC-92F8-858F5BD936C0}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN4" xr:uid="{0C4C8598-E47A-49AD-8516-93C59CB72E0A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN4:AN5" xr:uid="{0C4C8598-E47A-49AD-8516-93C59CB72E0A}">
       <formula1>"1,2,3,4,5,6,7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS4" xr:uid="{5148E1BD-6626-4EA0-8C56-DCDBF70E5B1B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS4:AS5" xr:uid="{5148E1BD-6626-4EA0-8C56-DCDBF70E5B1B}">
       <formula1>"陰性,未確定"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU4" xr:uid="{17A35DA7-4D3E-452F-AB23-71CDC8781F4B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU4:BU5" xr:uid="{17A35DA7-4D3E-452F-AB23-71CDC8781F4B}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CK4" xr:uid="{082E0D2A-51ED-4A64-8A5F-B77916973C5A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CK4:CK5" xr:uid="{082E0D2A-51ED-4A64-8A5F-B77916973C5A}">
       <formula1>"47,48,49"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:R4" xr:uid="{4A5CFDAE-EF86-493B-9607-514E3AD83FE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:R5" xr:uid="{4A5CFDAE-EF86-493B-9607-514E3AD83FE7}">
       <formula1>INDIRECT(P4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3385,54 +3737,66 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DBF601AF-7BD5-4A77-8DEC-A2A34EC494D7}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>BC4 AX4 P4 CD4</xm:sqref>
+          <xm:sqref>BC4:BC5 AX4:AX5 P4:P5 CD4:CD5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0571995E-64E0-4BF4-999E-1866A5814701}">
           <x14:formula1>
             <xm:f>清單!$G$2:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AY4</xm:sqref>
+          <xm:sqref>AY4:AY5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{45D6917A-AFB4-4872-B3D6-7B48076C2790}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AZ4</xm:sqref>
+          <xm:sqref>AZ4:AZ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4F2395B-47EA-441A-AB9B-971AA4D8728C}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>BF4 BI4 BN4</xm:sqref>
+          <xm:sqref>BF4:BF5 BI4:BI5 BN4:BN5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5EBF4A89-D62F-41CF-846A-60206D81B055}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>BP4</xm:sqref>
+          <xm:sqref>BP4:BP5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE256238-D8E7-4173-AC9C-D3E80BA26F52}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>BS4</xm:sqref>
+          <xm:sqref>BS4:BS5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DF96C604-E4BC-489D-B2B1-B1665E83F720}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BT4</xm:sqref>
+          <xm:sqref>BT4:BT5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{268FFB30-8004-4CED-88EC-35A9CF60C026}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>CE4</xm:sqref>
+          <xm:sqref>CE4:CE5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{77A2911B-03FF-4477-85A4-EADCA6167794}">
+          <x14:formula1>
+            <xm:f>清單!$T$2:$T$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4:G5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B8D0DB04-B1E7-4FFC-B104-F6F5473A8BA0}">
+          <x14:formula1>
+            <xm:f>清單!$S$2:$S$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4:H5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3442,19 +3806,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:CN4"/>
+  <dimension ref="A1:CN5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:92" s="6" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3463,10 +3828,10 @@
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -3481,16 +3846,16 @@
       <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="15" t="s">
         <v>15</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="15" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -3499,13 +3864,13 @@
       <c r="O1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="19" t="s">
         <v>67</v>
       </c>
       <c r="S1" s="2" t="s">
@@ -3517,80 +3882,80 @@
       <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="15" t="s">
         <v>24</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="AW1" s="3" t="s">
         <v>46</v>
@@ -3601,7 +3966,7 @@
       <c r="AY1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="BA1" s="3" t="s">
@@ -3686,16 +4051,16 @@
         <v>78</v>
       </c>
       <c r="CB1" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="CC1" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="CD1" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="CE1" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="CF1" s="2" t="s">
         <v>79</v>
@@ -3726,22 +4091,22 @@
       </c>
     </row>
     <row r="2" spans="1:92" s="8" customFormat="1" ht="41.5" customHeight="1">
-      <c r="A2" s="12"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="21" t="s">
         <v>89</v>
       </c>
       <c r="I2" s="2"/>
@@ -3755,7 +4120,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="18"/>
+      <c r="R2" s="21"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
         <v>92</v>
@@ -3775,90 +4140,90 @@
       <c r="Y2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AB2" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AG2" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="AH2" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="AE2" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AI2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AW2" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="AX2" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="AH2" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO2" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="AP2" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="AQ2" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="AR2" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>476</v>
-      </c>
       <c r="AY2" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="AZ2" s="12"/>
+        <v>472</v>
+      </c>
+      <c r="AZ2" s="2"/>
       <c r="BA2" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="BC2" s="2" t="s">
         <v>107</v>
@@ -3949,26 +4314,26 @@
       <c r="CI2" s="2"/>
       <c r="CJ2" s="2"/>
       <c r="CK2" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="CL2" s="2"/>
       <c r="CM2" s="2"/>
       <c r="CN2" s="2"/>
     </row>
     <row r="3" spans="1:92" s="10" customFormat="1" ht="58" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>495</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="E3" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>126</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -4007,7 +4372,7 @@
       <c r="Q3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="21" t="s">
         <v>189</v>
       </c>
       <c r="S3" s="2" t="s">
@@ -4031,70 +4396,70 @@
       <c r="Y3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AA3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AC3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AD3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AE3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AF3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AG3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AH3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AI3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AK3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AL3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AM3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AN3" s="12" t="s">
+      <c r="AN3" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AO3" s="12" t="s">
+      <c r="AO3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AP3" s="12" t="s">
+      <c r="AP3" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AQ3" s="12" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AR3" s="12" t="s">
+      <c r="AR3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AS3" s="12" t="s">
+      <c r="AS3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AT3" s="12" t="s">
+      <c r="AT3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AU3" s="12" t="s">
+      <c r="AU3" s="2" t="s">
         <v>166</v>
       </c>
       <c r="AV3" s="2" t="s">
@@ -4109,7 +4474,7 @@
       <c r="AY3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AZ3" s="12" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>171</v>
       </c>
       <c r="BA3" s="2" t="s">
@@ -4234,22 +4599,24 @@
       </c>
     </row>
     <row r="4" spans="1:92" s="10" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A4" s="16">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>512</v>
+      </c>
       <c r="D4" s="20" t="s">
-        <v>486</v>
-      </c>
-      <c r="E4" s="18">
+        <v>482</v>
+      </c>
+      <c r="E4" s="21">
         <v>1114</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -4258,45 +4625,45 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="18"/>
+      <c r="T4" s="21"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="18"/>
+      <c r="W4" s="21"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
       <c r="AY4" s="2"/>
-      <c r="AZ4" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="BA4" s="18"/>
+      <c r="AZ4" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="BA4" s="21"/>
       <c r="BB4" s="2"/>
       <c r="BC4" s="2"/>
       <c r="BD4" s="2"/>
@@ -4308,12 +4675,12 @@
       <c r="BJ4" s="2"/>
       <c r="BK4" s="2"/>
       <c r="BL4" s="2"/>
-      <c r="BM4" s="18"/>
+      <c r="BM4" s="21"/>
       <c r="BN4" s="2"/>
       <c r="BO4" s="2"/>
       <c r="BP4" s="2"/>
       <c r="BQ4" s="2"/>
-      <c r="BR4" s="18"/>
+      <c r="BR4" s="21"/>
       <c r="BS4" s="2"/>
       <c r="BT4" s="2"/>
       <c r="BU4" s="2"/>
@@ -4337,97 +4704,209 @@
       <c r="CM4" s="2"/>
       <c r="CN4" s="2"/>
     </row>
+    <row r="5" spans="1:92" s="10" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="E5" s="21">
+        <v>1114</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="BA5" s="21"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="21"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="2"/>
+      <c r="BQ5" s="2"/>
+      <c r="BR5" s="21"/>
+      <c r="BS5" s="2"/>
+      <c r="BT5" s="2"/>
+      <c r="BU5" s="2"/>
+      <c r="BV5" s="2"/>
+      <c r="BW5" s="2"/>
+      <c r="BX5" s="2"/>
+      <c r="BY5" s="2"/>
+      <c r="BZ5" s="2"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="2"/>
+      <c r="CD5" s="2"/>
+      <c r="CE5" s="2"/>
+      <c r="CF5" s="2"/>
+      <c r="CG5" s="2"/>
+      <c r="CH5" s="2"/>
+      <c r="CI5" s="2"/>
+      <c r="CJ5" s="2"/>
+      <c r="CK5" s="2"/>
+      <c r="CL5" s="2"/>
+      <c r="CM5" s="2"/>
+      <c r="CN5" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CK4" xr:uid="{E5568EF2-C48C-46EC-9CBA-D11A46B3D10E}">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CK4:CK5" xr:uid="{E5568EF2-C48C-46EC-9CBA-D11A46B3D10E}">
       <formula1>"47,48,49"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU4" xr:uid="{6A6FD16B-D146-48D4-8007-CC8AD842272C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU4:BU5" xr:uid="{6A6FD16B-D146-48D4-8007-CC8AD842272C}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS4" xr:uid="{5C410BA1-26F3-48D1-8F93-4BB3654F36DA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS4:AS5" xr:uid="{5C410BA1-26F3-48D1-8F93-4BB3654F36DA}">
       <formula1>"陰性,未確定"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN4" xr:uid="{B87D1338-0303-4100-ADBC-7DD3EF915347}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN4:AN5" xr:uid="{B87D1338-0303-4100-ADBC-7DD3EF915347}">
       <formula1>"1,2,3,4,5,6,7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH4 AV4 CB4" xr:uid="{BFDB66BF-E77F-4422-9ABE-1F1F3545F944}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH4:AH5 AV4:AV5 CB4:CB5" xr:uid="{BFDB66BF-E77F-4422-9ABE-1F1F3545F944}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4 BB4" xr:uid="{9CC6C120-8C52-4377-BE56-70F91CEAE505}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L5 BB4:BB5" xr:uid="{9CC6C120-8C52-4377-BE56-70F91CEAE505}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR4 T4 Z4 AM4 BA4 BM4 W4" xr:uid="{9C2FB067-3C47-487A-B172-8EEC1A545169}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR4:BR5 T4:T5 Z4:Z5 AM4:AM5 BA4:BA5 BM4:BM5 W4:W5" xr:uid="{9C2FB067-3C47-487A-B172-8EEC1A545169}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{5BBE0D81-5439-45A0-B057-626BAC58DD30}">
-      <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{A7D03AB6-2012-48FF-AB4C-067962553C5B}">
-      <formula1>"006,010,19CVS,044,061,090,098,100"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{7A56DE9E-282B-42FE-B013-5C1A3F5739DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{7A56DE9E-282B-42FE-B013-5C1A3F5739DE}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{13CF0A7E-2528-4479-9D23-EA74AC2DBE8A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{13CF0A7E-2528-4479-9D23-EA74AC2DBE8A}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:R4" xr:uid="{83C4FDC3-FEE9-4E00-BB8B-CFDA3A4851F5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:R5" xr:uid="{83C4FDC3-FEE9-4E00-BB8B-CFDA3A4851F5}">
       <formula1>INDIRECT(P4)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{47A8DB27-0A3F-4897-A4FF-6E10027884AD}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BT4</xm:sqref>
+          <xm:sqref>BT4:BT5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C0CC183D-9033-41FA-BC59-9D4C25687520}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>BS4</xm:sqref>
+          <xm:sqref>BS4:BS5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CBFE27C4-5404-4B2F-8029-E63EDD21A9ED}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>BP4</xm:sqref>
+          <xm:sqref>BP4:BP5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8075E563-CE4A-4116-89F8-B56DF9805CDD}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>BF4 BI4 BN4</xm:sqref>
+          <xm:sqref>BF4:BF5 BI4:BI5 BN4:BN5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{634FE883-BC92-4E29-A082-F69C4C3FD1D3}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AZ4</xm:sqref>
+          <xm:sqref>AZ4:AZ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5BDF0E6D-354F-4B66-91FD-7D15EEA5C177}">
           <x14:formula1>
             <xm:f>清單!$G$2:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AY4</xm:sqref>
+          <xm:sqref>AY4:AY5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F56F497C-87AE-4721-BED1-3A145928DEDE}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>BC4 AX4 CD4 P4</xm:sqref>
+          <xm:sqref>BC4:BC5 AX4:AX5 CD4:CD5 P4:P5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{46E2EC18-6F91-44C1-B7C2-B565257C6B8A}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>CE4</xm:sqref>
+          <xm:sqref>CE4:CE5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C741DE84-957B-4240-8B1E-C52EB21E384B}">
+          <x14:formula1>
+            <xm:f>清單!$T$2:$T$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4:G5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1EE87137-827B-4249-BDD3-3A48F560866B}">
+          <x14:formula1>
+            <xm:f>清單!$S$2:$S$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4:H5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4437,10 +4916,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21ACA6A-3C2F-4362-99F3-0121F2A79C95}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4459,888 +4938,962 @@
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.5" customWidth="1"/>
+    <col min="20" max="20" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.5">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:20" ht="15.5">
+      <c r="A1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="M1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N1" t="s">
+        <v>242</v>
+      </c>
+      <c r="O1" t="s">
+        <v>243</v>
+      </c>
+      <c r="P1" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R1" t="s">
+        <v>246</v>
+      </c>
+      <c r="S1" t="s">
+        <v>514</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K2" t="s">
+        <v>254</v>
+      </c>
+      <c r="L2" t="s">
+        <v>255</v>
+      </c>
+      <c r="M2" t="s">
+        <v>256</v>
+      </c>
+      <c r="N2" t="s">
+        <v>257</v>
+      </c>
+      <c r="O2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P2" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>259</v>
+      </c>
+      <c r="R2" t="s">
+        <v>260</v>
+      </c>
+      <c r="S2" t="s">
+        <v>516</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="H3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K3" t="s">
+        <v>227</v>
+      </c>
+      <c r="L3" t="s">
+        <v>267</v>
+      </c>
+      <c r="M3" t="s">
+        <v>268</v>
+      </c>
+      <c r="N3" t="s">
+        <v>269</v>
+      </c>
+      <c r="O3" t="s">
+        <v>270</v>
+      </c>
+      <c r="P3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>224</v>
+      </c>
+      <c r="R3" t="s">
+        <v>271</v>
+      </c>
+      <c r="S3" t="s">
+        <v>518</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D4" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="H1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="M1" t="s">
-        <v>244</v>
-      </c>
-      <c r="N1" t="s">
-        <v>245</v>
-      </c>
-      <c r="O1" t="s">
-        <v>246</v>
-      </c>
-      <c r="P1" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>248</v>
-      </c>
-      <c r="R1" t="s">
-        <v>249</v>
+      <c r="E4" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="H4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I4" t="s">
+        <v>278</v>
+      </c>
+      <c r="J4" t="s">
+        <v>279</v>
+      </c>
+      <c r="K4" t="s">
+        <v>280</v>
+      </c>
+      <c r="L4" t="s">
+        <v>281</v>
+      </c>
+      <c r="M4" t="s">
+        <v>282</v>
+      </c>
+      <c r="N4" t="s">
+        <v>283</v>
+      </c>
+      <c r="O4" t="s">
+        <v>284</v>
+      </c>
+      <c r="P4" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>269</v>
+      </c>
+      <c r="R4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S4" t="s">
+        <v>520</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>521</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2" s="21" t="s">
+    <row r="5" spans="1:20">
+      <c r="A5" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="H2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J2" t="s">
-        <v>256</v>
-      </c>
-      <c r="K2" t="s">
-        <v>257</v>
-      </c>
-      <c r="L2" t="s">
-        <v>258</v>
-      </c>
-      <c r="M2" t="s">
-        <v>259</v>
-      </c>
-      <c r="N2" t="s">
-        <v>260</v>
-      </c>
-      <c r="O2" t="s">
-        <v>261</v>
-      </c>
-      <c r="P2" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>262</v>
-      </c>
-      <c r="R2" t="s">
-        <v>263</v>
+      <c r="H5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I5" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" t="s">
+        <v>291</v>
+      </c>
+      <c r="K5" t="s">
+        <v>292</v>
+      </c>
+      <c r="L5" t="s">
+        <v>293</v>
+      </c>
+      <c r="M5" t="s">
+        <v>294</v>
+      </c>
+      <c r="N5" t="s">
+        <v>295</v>
+      </c>
+      <c r="O5" t="s">
+        <v>296</v>
+      </c>
+      <c r="P5" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>298</v>
+      </c>
+      <c r="R5" t="s">
+        <v>299</v>
+      </c>
+      <c r="S5" t="s">
+        <v>522</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="C3" s="21" t="s">
+    <row r="6" spans="1:20">
+      <c r="A6" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D6" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="H3" t="s">
-        <v>268</v>
-      </c>
-      <c r="I3" t="s">
-        <v>269</v>
-      </c>
-      <c r="J3" t="s">
-        <v>229</v>
-      </c>
-      <c r="K3" t="s">
-        <v>230</v>
-      </c>
-      <c r="L3" t="s">
-        <v>270</v>
-      </c>
-      <c r="M3" t="s">
-        <v>271</v>
-      </c>
-      <c r="N3" t="s">
-        <v>272</v>
-      </c>
-      <c r="O3" t="s">
-        <v>273</v>
-      </c>
-      <c r="P3" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>227</v>
-      </c>
-      <c r="R3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="H4" t="s">
-        <v>280</v>
-      </c>
-      <c r="I4" t="s">
-        <v>281</v>
-      </c>
-      <c r="J4" t="s">
-        <v>282</v>
-      </c>
-      <c r="K4" t="s">
-        <v>283</v>
-      </c>
-      <c r="L4" t="s">
-        <v>284</v>
-      </c>
-      <c r="M4" t="s">
-        <v>285</v>
-      </c>
-      <c r="N4" t="s">
-        <v>286</v>
-      </c>
-      <c r="O4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P4" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>272</v>
-      </c>
-      <c r="R4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="B5" s="21" t="s">
+      <c r="E6" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H6" t="s">
+        <v>305</v>
+      </c>
+      <c r="I6" t="s">
+        <v>306</v>
+      </c>
+      <c r="J6" t="s">
+        <v>307</v>
+      </c>
+      <c r="K6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M6" t="s">
+        <v>309</v>
+      </c>
+      <c r="O6" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="H5" t="s">
-        <v>292</v>
-      </c>
-      <c r="I5" t="s">
-        <v>293</v>
-      </c>
-      <c r="J5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K5" t="s">
-        <v>295</v>
-      </c>
-      <c r="L5" t="s">
-        <v>296</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="Q6" t="s">
         <v>297</v>
-      </c>
-      <c r="N5" t="s">
-        <v>298</v>
-      </c>
-      <c r="O5" t="s">
-        <v>299</v>
-      </c>
-      <c r="P5" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>301</v>
-      </c>
-      <c r="R5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="H6" t="s">
-        <v>308</v>
-      </c>
-      <c r="I6" t="s">
-        <v>309</v>
-      </c>
-      <c r="J6" t="s">
-        <v>310</v>
-      </c>
-      <c r="K6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M6" t="s">
-        <v>312</v>
-      </c>
-      <c r="O6" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>300</v>
       </c>
       <c r="R6" t="s">
         <v>86</v>
       </c>
+      <c r="S6" t="s">
+        <v>215</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>524</v>
+      </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:20">
+      <c r="A7" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>316</v>
       </c>
       <c r="G7" t="s">
         <v>86</v>
       </c>
       <c r="H7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I7" t="s">
         <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q7" t="s">
         <v>86</v>
       </c>
+      <c r="S7" t="s">
+        <v>525</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>526</v>
+      </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:20">
+      <c r="A8" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="H8" t="s">
         <v>322</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="I8" t="s">
+        <v>308</v>
+      </c>
+      <c r="J8" t="s">
         <v>323</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="M8" t="s">
         <v>324</v>
       </c>
-      <c r="H8" t="s">
+      <c r="O8" t="s">
         <v>325</v>
       </c>
-      <c r="I8" t="s">
-        <v>311</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="S8" t="s">
+        <v>527</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="M8" t="s">
+      <c r="B9" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="O8" t="s">
+      <c r="C9" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>328</v>
       </c>
+      <c r="F9" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="H9" t="s">
+        <v>330</v>
+      </c>
+      <c r="J9" t="s">
+        <v>331</v>
+      </c>
+      <c r="M9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O9" t="s">
+        <v>333</v>
+      </c>
+      <c r="S9" t="s">
+        <v>529</v>
+      </c>
+      <c r="T9" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="H9" t="s">
-        <v>333</v>
-      </c>
-      <c r="J9" t="s">
+    <row r="10" spans="1:20">
+      <c r="A10" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="M9" t="s">
+      <c r="B10" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="O9" t="s">
+      <c r="C10" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="21" t="s">
+      <c r="F10" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="H10" t="s">
         <v>338</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="E10" s="21" t="s">
+      <c r="J10" t="s">
         <v>339</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="H10" t="s">
-        <v>341</v>
-      </c>
-      <c r="J10" t="s">
-        <v>342</v>
       </c>
       <c r="M10" t="s">
         <v>86</v>
       </c>
+      <c r="S10" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="T10" s="22" t="s">
+        <v>531</v>
+      </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:20">
+      <c r="A11" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="H11" t="s">
         <v>344</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="S11" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="T11" s="22" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="H12" t="s">
+        <v>349</v>
+      </c>
+      <c r="S12" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="T12" s="22" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="H13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D14" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="H11" t="s">
-        <v>347</v>
+      <c r="E14" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="H14" t="s">
+        <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="C12" s="21" t="s">
+    <row r="15" spans="1:20">
+      <c r="A15" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D15" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="H12" t="s">
-        <v>352</v>
+      <c r="E15" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="C13" s="21" t="s">
+    <row r="16" spans="1:20">
+      <c r="A16" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D16" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="H13" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="H14" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="F15" s="21" t="s">
+      <c r="E16" s="13" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="21" t="s">
+      <c r="F16" s="13" t="s">
         <v>367</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>371</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>375</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="F19" s="21"/>
+      <c r="A19" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="F20" s="21"/>
+      <c r="A20" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="F21" s="21"/>
+      <c r="A21" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="F22" s="21"/>
+      <c r="A22" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="F23" s="21"/>
+      <c r="A23" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="F24" s="21"/>
+      <c r="A24" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="F25" s="21"/>
+      <c r="A25" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="F26" s="21"/>
+      <c r="A26" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="F27" s="21"/>
+      <c r="A27" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="F28" s="21"/>
+      <c r="A28" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="F29" s="21"/>
+      <c r="A29" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="F30" s="21"/>
+      <c r="A30" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="F31" s="21"/>
+      <c r="A31" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="F32" s="21"/>
+      <c r="A32" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="F33" s="21"/>
+      <c r="A33" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="F34" s="21"/>
+      <c r="A34" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
+      <c r="A35" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/testdata/Smoke_WEB_MED_044_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_044_NEWREPORT_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35ACAC5-CF77-4105-BD01-F9E12BCAC429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AEA4E1-EFA4-4573-89A1-AA95B93D811D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="0" windowWidth="13890" windowHeight="9620" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="310" windowWidth="12620" windowHeight="9930" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <author>tc={11409CC0-D1BB-4742-B584-BC9084E1C157}</author>
   </authors>
   <commentList>
-    <comment ref="CJ4" authorId="0" shapeId="0" xr:uid="{79BB527D-17CB-4B78-A95B-7F026DF4A641}">
+    <comment ref="CK4" authorId="0" shapeId="0" xr:uid="{79BB527D-17CB-4B78-A95B-7F026DF4A641}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -96,7 +96,7 @@
     不安全性行為，性行為對象： ,注射藥癮者(不含搖頭族) ,接受輸血者,母子垂直感染 ,血友病 ,不詳 ,其他,</t>
       </text>
     </comment>
-    <comment ref="CJ5" authorId="1" shapeId="0" xr:uid="{11409CC0-D1BB-4742-B584-BC9084E1C157}">
+    <comment ref="CK5" authorId="1" shapeId="0" xr:uid="{11409CC0-D1BB-4742-B584-BC9084E1C157}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="538">
   <si>
     <t>User</t>
   </si>
@@ -1940,6 +1940,14 @@
   </si>
   <si>
     <t>001</t>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2050,7 +2058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2113,6 +2121,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2400,10 +2411,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="CJ4" dT="2023-11-21T06:56:32.78" personId="{8030343C-8E51-4787-BE4C-A7158E403FF5}" id="{79BB527D-17CB-4B78-A95B-7F026DF4A641}">
+  <threadedComment ref="CK4" dT="2023-11-21T06:56:32.78" personId="{8030343C-8E51-4787-BE4C-A7158E403FF5}" id="{79BB527D-17CB-4B78-A95B-7F026DF4A641}">
     <text>不安全性行為，性行為對象： ,注射藥癮者(不含搖頭族) ,接受輸血者,母子垂直感染 ,血友病 ,不詳 ,其他,</text>
   </threadedComment>
-  <threadedComment ref="CJ5" dT="2023-11-21T06:56:32.78" personId="{8030343C-8E51-4787-BE4C-A7158E403FF5}" id="{11409CC0-D1BB-4742-B584-BC9084E1C157}">
+  <threadedComment ref="CK5" dT="2023-11-21T06:56:32.78" personId="{8030343C-8E51-4787-BE4C-A7158E403FF5}" id="{11409CC0-D1BB-4742-B584-BC9084E1C157}">
     <text>不安全性行為，性行為對象： ,注射藥癮者(不含搖頭族) ,接受輸血者,母子垂直感染 ,血友病 ,不詳 ,其他,</text>
   </threadedComment>
 </ThreadedComments>
@@ -2460,921 +2471,929 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:CN5"/>
+  <dimension ref="A1:CO5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.796875" customWidth="1"/>
-    <col min="24" max="24" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="47" width="18.5" customWidth="1"/>
-    <col min="48" max="49" width="22.19921875" customWidth="1"/>
-    <col min="50" max="50" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="32.59765625" customWidth="1"/>
-    <col min="52" max="52" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="30.8984375" customWidth="1"/>
-    <col min="54" max="54" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="26.3984375" customWidth="1"/>
-    <col min="57" max="57" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="26.3984375" customWidth="1"/>
-    <col min="60" max="60" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.09765625" customWidth="1"/>
-    <col min="63" max="63" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="65" max="69" width="26" customWidth="1"/>
-    <col min="70" max="70" width="9.59765625" customWidth="1"/>
-    <col min="71" max="71" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="76" max="77" width="22.19921875" customWidth="1"/>
-    <col min="78" max="78" width="27.8984375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="33.3984375" bestFit="1" customWidth="1"/>
-    <col min="80" max="81" width="22.19921875" customWidth="1"/>
-    <col min="82" max="82" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="83" max="84" width="32.59765625" customWidth="1"/>
-    <col min="85" max="85" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="31" bestFit="1" customWidth="1"/>
-    <col min="88" max="91" width="31" customWidth="1"/>
-    <col min="92" max="92" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="13"/>
+    <col min="2" max="2" width="8.796875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.796875" customWidth="1"/>
+    <col min="25" max="25" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="48" width="18.5" customWidth="1"/>
+    <col min="49" max="50" width="22.19921875" customWidth="1"/>
+    <col min="51" max="51" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="32.59765625" customWidth="1"/>
+    <col min="53" max="53" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="30.8984375" customWidth="1"/>
+    <col min="55" max="55" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="26.3984375" customWidth="1"/>
+    <col min="58" max="58" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="26.3984375" customWidth="1"/>
+    <col min="61" max="61" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18.09765625" customWidth="1"/>
+    <col min="64" max="64" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="66" max="70" width="26" customWidth="1"/>
+    <col min="71" max="71" width="9.59765625" customWidth="1"/>
+    <col min="72" max="72" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="29.09765625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="22.19921875" customWidth="1"/>
+    <col min="79" max="79" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="33.3984375" bestFit="1" customWidth="1"/>
+    <col min="81" max="82" width="22.19921875" customWidth="1"/>
+    <col min="83" max="83" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="32.59765625" customWidth="1"/>
+    <col min="86" max="86" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="31" bestFit="1" customWidth="1"/>
+    <col min="89" max="92" width="31" customWidth="1"/>
+    <col min="93" max="93" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="6" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:93" s="6" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" s="3"/>
       <c r="AP1" s="3"/>
       <c r="AQ1" s="3"/>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CH1" s="5" t="s">
+      <c r="CI1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:92" s="8" customFormat="1" ht="110.5" customHeight="1">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:93" s="8" customFormat="1" ht="110.5" customHeight="1">
+      <c r="A2" s="13"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="Z2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>466</v>
       </c>
       <c r="AH2" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>99</v>
       </c>
       <c r="AM2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="AY2" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="BE2" s="2" t="s">
         <v>108</v>
       </c>
       <c r="BF2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG2" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="BH2" s="2" t="s">
         <v>110</v>
       </c>
       <c r="BI2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="BK2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BL2" s="2"/>
-      <c r="BM2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="BP2" s="2"/>
-      <c r="BQ2" s="2" t="s">
+      <c r="BQ2" s="2"/>
+      <c r="BR2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="BR2" s="2" t="s">
+      <c r="BS2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BS2" s="2" t="s">
+      <c r="BT2" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="BT2" s="2"/>
-      <c r="BU2" s="2" t="s">
+      <c r="BU2" s="2"/>
+      <c r="BV2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BW2" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="BX2" s="2" t="s">
         <v>119</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ2" s="2" t="s">
         <v>120</v>
       </c>
       <c r="CA2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="CB2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CB2" s="2" t="s">
+      <c r="CC2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="CC2" s="2" t="s">
+      <c r="CD2" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="CE2" s="2" t="s">
         <v>106</v>
       </c>
       <c r="CF2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CG2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="CG2" s="2"/>
-      <c r="CH2" s="2" t="s">
+      <c r="CH2" s="2"/>
+      <c r="CI2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CI2" s="2"/>
-      <c r="CJ2" s="2" t="s">
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="CK2" s="2" t="s">
+      <c r="CL2" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="CL2" s="2" t="s">
+      <c r="CM2" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="CM2" s="2" t="s">
+      <c r="CN2" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="CN2" s="2"/>
+      <c r="CO2" s="2"/>
     </row>
-    <row r="3" spans="1:92" s="10" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:93" s="10" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="S3" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BI3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BJ3" s="2" t="s">
+      <c r="BK3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BL3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="BL3" s="2" t="s">
+      <c r="BM3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="BM3" s="2" t="s">
+      <c r="BN3" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="BN3" s="2" t="s">
+      <c r="BO3" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="BO3" s="2" t="s">
+      <c r="BP3" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="BP3" s="2" t="s">
+      <c r="BQ3" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="BQ3" s="2" t="s">
+      <c r="BR3" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="BR3" s="2" t="s">
+      <c r="BS3" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="BS3" s="2" t="s">
+      <c r="BT3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="BT3" s="2" t="s">
+      <c r="BU3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BU3" s="2" t="s">
+      <c r="BV3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BV3" s="2" t="s">
+      <c r="BW3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BW3" s="2" t="s">
+      <c r="BX3" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BX3" s="2" t="s">
+      <c r="BY3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BY3" s="2" t="s">
+      <c r="BZ3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BZ3" s="2" t="s">
+      <c r="CA3" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="CA3" s="2" t="s">
+      <c r="CB3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="CB3" s="2" t="s">
+      <c r="CC3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="CC3" s="2" t="s">
+      <c r="CD3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="CD3" s="2" t="s">
+      <c r="CE3" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="CE3" s="2" t="s">
+      <c r="CF3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="CF3" s="2" t="s">
+      <c r="CG3" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="CG3" s="2" t="s">
+      <c r="CH3" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="CH3" s="2" t="s">
+      <c r="CI3" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="CI3" s="2" t="s">
+      <c r="CJ3" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="CJ3" s="2" t="s">
+      <c r="CK3" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="CK3" s="2" t="s">
+      <c r="CL3" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="CL3" s="2" t="s">
+      <c r="CM3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="CM3" s="2" t="s">
+      <c r="CN3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="CN3" s="2" t="s">
+      <c r="CO3" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:92" s="10" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A4" s="12">
+    <row r="4" spans="1:93" s="10" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21">
         <v>3</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="H4" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="I4" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>1</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>12345</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <v>54321</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="R4" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="S4" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="21" t="b">
+      <c r="T4" s="2"/>
+      <c r="U4" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="U4" s="2">
+      <c r="V4" s="2">
         <v>-20</v>
       </c>
-      <c r="V4" s="21" t="b">
+      <c r="W4" s="21" t="b">
         <v>0</v>
-      </c>
-      <c r="W4" s="2">
-        <v>-20</v>
       </c>
       <c r="X4" s="2">
         <v>-20</v>
@@ -3382,25 +3401,25 @@
       <c r="Y4" s="2">
         <v>-20</v>
       </c>
-      <c r="Z4" s="21" t="b">
+      <c r="Z4" s="2">
+        <v>-20</v>
+      </c>
+      <c r="AA4" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2">
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2">
         <v>1</v>
-      </c>
-      <c r="AI4" s="2">
-        <v>-20</v>
       </c>
       <c r="AJ4" s="2">
         <v>-20</v>
@@ -3411,91 +3430,93 @@
       <c r="AL4" s="2">
         <v>-20</v>
       </c>
-      <c r="AM4" s="21" t="b">
+      <c r="AM4" s="2">
+        <v>-20</v>
+      </c>
+      <c r="AN4" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AO4" s="2">
         <v>6</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AP4" s="2">
         <v>37</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AQ4" s="2">
         <v>38</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AR4" s="2">
         <v>39</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AS4" s="2">
         <v>-20</v>
       </c>
-      <c r="AS4" s="2" t="s">
+      <c r="AT4" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AU4" s="2">
         <v>10</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AV4" s="2">
         <v>3.12</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AW4" s="2">
         <v>1</v>
       </c>
-      <c r="AW4" s="2" t="s">
+      <c r="AX4" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="AX4" s="2"/>
       <c r="AY4" s="2"/>
-      <c r="AZ4" s="2" t="s">
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="BA4" s="21" t="b">
+      <c r="BB4" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="BB4" s="2">
+      <c r="BC4" s="2">
         <v>3</v>
       </c>
-      <c r="BC4" s="2"/>
       <c r="BD4" s="2"/>
       <c r="BE4" s="2"/>
       <c r="BF4" s="2"/>
       <c r="BG4" s="2"/>
       <c r="BH4" s="2"/>
-      <c r="BI4" s="2" t="s">
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="BJ4" s="2">
-        <v>-40</v>
       </c>
       <c r="BK4" s="2">
         <v>-40</v>
       </c>
-      <c r="BL4" s="2" t="s">
+      <c r="BL4" s="2">
+        <v>-40</v>
+      </c>
+      <c r="BM4" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="BM4" s="21" t="b">
+      <c r="BN4" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="BN4" s="2"/>
       <c r="BO4" s="2"/>
       <c r="BP4" s="2"/>
       <c r="BQ4" s="2"/>
-      <c r="BR4" s="21" t="b">
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="BS4" s="2"/>
       <c r="BT4" s="2"/>
-      <c r="BU4" s="2">
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2">
         <v>4</v>
       </c>
-      <c r="BV4" s="2"/>
-      <c r="BW4" s="2">
-        <v>-15</v>
-      </c>
+      <c r="BW4" s="2"/>
       <c r="BX4" s="2">
         <v>-15</v>
       </c>
-      <c r="BY4" s="2"/>
+      <c r="BY4" s="2">
+        <v>-15</v>
+      </c>
       <c r="BZ4" s="2"/>
       <c r="CA4" s="2"/>
       <c r="CB4" s="2"/>
@@ -3506,159 +3527,162 @@
       <c r="CG4" s="2"/>
       <c r="CH4" s="2"/>
       <c r="CI4" s="2"/>
-      <c r="CJ4" s="2" t="s">
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="CK4" s="2">
+      <c r="CL4" s="2">
         <v>47</v>
-      </c>
-      <c r="CL4" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="CM4" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="CN4" s="2"/>
+      <c r="CN4" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="CO4" s="2"/>
     </row>
-    <row r="5" spans="1:92" s="10" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A5" s="12">
+    <row r="5" spans="1:93" s="10" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A5" s="13">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21">
+      <c r="F5" s="21"/>
+      <c r="G5" s="21">
         <v>3</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="H5" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="I5" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>2</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>12345</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>54321</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="R5" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="S5" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="21" t="b">
+      <c r="T5" s="2"/>
+      <c r="U5" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="21" t="b">
+      <c r="V5" s="2"/>
+      <c r="W5" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2">
-        <v>-20</v>
-      </c>
+      <c r="X5" s="2"/>
       <c r="Y5" s="2">
         <v>-20</v>
       </c>
-      <c r="Z5" s="21" t="b">
+      <c r="Z5" s="2">
+        <v>-20</v>
+      </c>
+      <c r="AA5" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2" t="s">
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AD5" s="2">
         <v>13</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AE5" s="2">
         <v>30</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AF5" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>-20</v>
       </c>
       <c r="AG5" s="2">
         <v>-20</v>
       </c>
-      <c r="AH5" s="2"/>
+      <c r="AH5" s="2">
+        <v>-20</v>
+      </c>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
-      <c r="AM5" s="21" t="b">
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AO5" s="2">
         <v>5</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AP5" s="2">
         <v>34</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AQ5" s="2">
         <v>35</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AR5" s="2">
         <v>36</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="AS5" s="2">
         <v>-20</v>
       </c>
-      <c r="AS5" s="2" t="s">
+      <c r="AT5" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AT5" s="2">
+      <c r="AU5" s="2">
         <v>6</v>
       </c>
-      <c r="AU5" s="2">
+      <c r="AV5" s="2">
         <v>2.08</v>
       </c>
-      <c r="AV5" s="2">
+      <c r="AW5" s="2">
         <v>2</v>
       </c>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2" t="s">
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="AY5" s="2" t="s">
+      <c r="AZ5" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="AZ5" s="2" t="s">
+      <c r="BA5" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="BA5" s="21" t="b">
+      <c r="BB5" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="BB5" s="2"/>
       <c r="BC5" s="2"/>
       <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
@@ -3669,13 +3693,13 @@
       <c r="BJ5" s="2"/>
       <c r="BK5" s="2"/>
       <c r="BL5" s="2"/>
-      <c r="BM5" s="21"/>
-      <c r="BN5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="21"/>
       <c r="BO5" s="2"/>
       <c r="BP5" s="2"/>
       <c r="BQ5" s="2"/>
-      <c r="BR5" s="21"/>
-      <c r="BS5" s="2"/>
+      <c r="BR5" s="2"/>
+      <c r="BS5" s="21"/>
       <c r="BT5" s="2"/>
       <c r="BU5" s="2"/>
       <c r="BV5" s="2"/>
@@ -3697,39 +3721,40 @@
       <c r="CL5" s="2"/>
       <c r="CM5" s="2"/>
       <c r="CN5" s="2"/>
+      <c r="CO5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{388E0A73-CB12-4C32-A358-B307A60B5297}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5" xr:uid="{388E0A73-CB12-4C32-A358-B307A60B5297}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{7FBB3C53-ED56-4C38-A1F6-A928C33204D0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G5" xr:uid="{7FBB3C53-ED56-4C38-A1F6-A928C33204D0}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR4:BR5 T4:T5 Z4:Z5 AM4:AM5 BA4:BA5 BM4:BM5 V4:W5" xr:uid="{9252E44D-E815-4972-B878-E148DD60F708}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS4:BS5 U4:U5 AA4:AA5 AN4:AN5 BB4:BB5 BN4:BN5 W4:X5" xr:uid="{9252E44D-E815-4972-B878-E148DD60F708}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L5 BB4:BB5" xr:uid="{5899D01E-9229-4A5E-9C3F-7F145616472B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M5 BC4:BC5" xr:uid="{5899D01E-9229-4A5E-9C3F-7F145616472B}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH4:AH5 AV4:AV5 CB4:CB5" xr:uid="{1485C6DD-6C12-47CC-92F8-858F5BD936C0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI4:AI5 AW4:AW5 CC4:CC5" xr:uid="{1485C6DD-6C12-47CC-92F8-858F5BD936C0}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN4:AN5" xr:uid="{0C4C8598-E47A-49AD-8516-93C59CB72E0A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO4:AO5" xr:uid="{0C4C8598-E47A-49AD-8516-93C59CB72E0A}">
       <formula1>"1,2,3,4,5,6,7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS4:AS5" xr:uid="{5148E1BD-6626-4EA0-8C56-DCDBF70E5B1B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT4:AT5" xr:uid="{5148E1BD-6626-4EA0-8C56-DCDBF70E5B1B}">
       <formula1>"陰性,未確定"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU4:BU5" xr:uid="{17A35DA7-4D3E-452F-AB23-71CDC8781F4B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV4:BV5" xr:uid="{17A35DA7-4D3E-452F-AB23-71CDC8781F4B}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CK4:CK5" xr:uid="{082E0D2A-51ED-4A64-8A5F-B77916973C5A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CL4:CL5" xr:uid="{082E0D2A-51ED-4A64-8A5F-B77916973C5A}">
       <formula1>"47,48,49"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:R5" xr:uid="{4A5CFDAE-EF86-493B-9607-514E3AD83FE7}">
-      <formula1>INDIRECT(P4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4:S5" xr:uid="{4A5CFDAE-EF86-493B-9607-514E3AD83FE7}">
+      <formula1>INDIRECT(Q4)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3742,61 +3767,61 @@
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>BC4:BC5 AX4:AX5 P4:P5 CD4:CD5</xm:sqref>
+          <xm:sqref>BD4:BD5 AY4:AY5 Q4:Q5 CE4:CE5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0571995E-64E0-4BF4-999E-1866A5814701}">
           <x14:formula1>
             <xm:f>清單!$G$2:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AY4:AY5</xm:sqref>
+          <xm:sqref>AZ4:AZ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{45D6917A-AFB4-4872-B3D6-7B48076C2790}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AZ4:AZ5</xm:sqref>
+          <xm:sqref>BA4:BA5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4F2395B-47EA-441A-AB9B-971AA4D8728C}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>BF4:BF5 BI4:BI5 BN4:BN5</xm:sqref>
+          <xm:sqref>BG4:BG5 BJ4:BJ5 BO4:BO5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5EBF4A89-D62F-41CF-846A-60206D81B055}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>BP4:BP5</xm:sqref>
+          <xm:sqref>BQ4:BQ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE256238-D8E7-4173-AC9C-D3E80BA26F52}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>BS4:BS5</xm:sqref>
+          <xm:sqref>BT4:BT5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DF96C604-E4BC-489D-B2B1-B1665E83F720}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BT4:BT5</xm:sqref>
+          <xm:sqref>BU4:BU5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{268FFB30-8004-4CED-88EC-35A9CF60C026}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>CE4:CE5</xm:sqref>
+          <xm:sqref>CF4:CF5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{77A2911B-03FF-4477-85A4-EADCA6167794}">
           <x14:formula1>
             <xm:f>清單!$T$2:$T$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G5</xm:sqref>
+          <xm:sqref>H4:H5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B8D0DB04-B1E7-4FFC-B104-F6F5473A8BA0}">
           <x14:formula1>
             <xm:f>清單!$S$2:$S$12</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H5</xm:sqref>
+          <xm:sqref>I4:I5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3806,818 +3831,828 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:CN5"/>
+  <dimension ref="A1:CO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="13"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="6" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:93" s="6" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" s="3"/>
       <c r="AP1" s="3"/>
       <c r="AQ1" s="3"/>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CH1" s="5" t="s">
+      <c r="CI1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:92" s="8" customFormat="1" ht="41.5" customHeight="1">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:93" s="8" customFormat="1" ht="41.5" customHeight="1">
+      <c r="A2" s="13"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
-        <v>89</v>
-      </c>
+      <c r="F2" s="21"/>
       <c r="G2" s="21" t="s">
         <v>89</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="Z2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>99</v>
       </c>
       <c r="AM2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="AY2" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="BE2" s="2" t="s">
         <v>108</v>
       </c>
       <c r="BF2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG2" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="BH2" s="2" t="s">
         <v>110</v>
       </c>
       <c r="BI2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="BK2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BL2" s="2"/>
-      <c r="BM2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="BP2" s="2"/>
-      <c r="BQ2" s="2" t="s">
+      <c r="BQ2" s="2"/>
+      <c r="BR2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="BR2" s="2" t="s">
+      <c r="BS2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BS2" s="2"/>
       <c r="BT2" s="2"/>
-      <c r="BU2" s="2" t="s">
+      <c r="BU2" s="2"/>
+      <c r="BV2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BW2" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="BX2" s="2" t="s">
         <v>119</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ2" s="2" t="s">
         <v>120</v>
       </c>
       <c r="CA2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="CB2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CB2" s="2" t="s">
+      <c r="CC2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="CC2" s="2" t="s">
+      <c r="CD2" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="CE2" s="2" t="s">
         <v>106</v>
       </c>
       <c r="CF2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CG2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="CG2" s="2"/>
-      <c r="CH2" s="2" t="s">
+      <c r="CH2" s="2"/>
+      <c r="CI2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CI2" s="2"/>
       <c r="CJ2" s="2"/>
-      <c r="CK2" s="2" t="s">
+      <c r="CK2" s="2"/>
+      <c r="CL2" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="CL2" s="2"/>
       <c r="CM2" s="2"/>
       <c r="CN2" s="2"/>
+      <c r="CO2" s="2"/>
     </row>
-    <row r="3" spans="1:92" s="10" customFormat="1" ht="58" customHeight="1">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:93" s="10" customFormat="1" ht="58" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="S3" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BI3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BJ3" s="2" t="s">
+      <c r="BK3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BL3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="BL3" s="2" t="s">
+      <c r="BM3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="BM3" s="2" t="s">
+      <c r="BN3" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="BN3" s="2" t="s">
+      <c r="BO3" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="BO3" s="2" t="s">
+      <c r="BP3" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="BP3" s="2" t="s">
+      <c r="BQ3" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="BQ3" s="2" t="s">
+      <c r="BR3" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="BR3" s="2" t="s">
+      <c r="BS3" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="BS3" s="2" t="s">
+      <c r="BT3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="BT3" s="2" t="s">
+      <c r="BU3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BU3" s="2" t="s">
+      <c r="BV3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BV3" s="2" t="s">
+      <c r="BW3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BW3" s="2" t="s">
+      <c r="BX3" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BX3" s="2" t="s">
+      <c r="BY3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BY3" s="2" t="s">
+      <c r="BZ3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BZ3" s="2" t="s">
+      <c r="CA3" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="CA3" s="2" t="s">
+      <c r="CB3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="CB3" s="2" t="s">
+      <c r="CC3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="CC3" s="2" t="s">
+      <c r="CD3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="CD3" s="2" t="s">
+      <c r="CE3" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="CE3" s="2" t="s">
+      <c r="CF3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="CF3" s="2" t="s">
+      <c r="CG3" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="CG3" s="2" t="s">
+      <c r="CH3" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="CH3" s="2" t="s">
+      <c r="CI3" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="CI3" s="2" t="s">
+      <c r="CJ3" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="CJ3" s="2" t="s">
+      <c r="CK3" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="CK3" s="2" t="s">
+      <c r="CL3" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="CL3" s="2" t="s">
+      <c r="CM3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="CM3" s="2" t="s">
+      <c r="CN3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="CN3" s="2" t="s">
+      <c r="CO3" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:92" s="10" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A4" s="12">
+    <row r="4" spans="1:93" s="10" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="E4" s="21">
+      <c r="F4" s="21">
         <v>1114</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="2"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -4625,17 +4660,17 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="2"/>
       <c r="R4" s="21"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="2"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="21"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="21"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="21"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
@@ -4647,8 +4682,8 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
-      <c r="AM4" s="21"/>
-      <c r="AN4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="21"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
@@ -4660,11 +4695,11 @@
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
       <c r="AY4" s="2"/>
-      <c r="AZ4" s="2" t="s">
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="BA4" s="21"/>
-      <c r="BB4" s="2"/>
+      <c r="BB4" s="21"/>
       <c r="BC4" s="2"/>
       <c r="BD4" s="2"/>
       <c r="BE4" s="2"/>
@@ -4675,13 +4710,13 @@
       <c r="BJ4" s="2"/>
       <c r="BK4" s="2"/>
       <c r="BL4" s="2"/>
-      <c r="BM4" s="21"/>
-      <c r="BN4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="21"/>
       <c r="BO4" s="2"/>
       <c r="BP4" s="2"/>
       <c r="BQ4" s="2"/>
-      <c r="BR4" s="21"/>
-      <c r="BS4" s="2"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="21"/>
       <c r="BT4" s="2"/>
       <c r="BU4" s="2"/>
       <c r="BV4" s="2"/>
@@ -4703,27 +4738,30 @@
       <c r="CL4" s="2"/>
       <c r="CM4" s="2"/>
       <c r="CN4" s="2"/>
+      <c r="CO4" s="2"/>
     </row>
-    <row r="5" spans="1:92" s="10" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A5" s="12">
+    <row r="5" spans="1:93" s="10" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="E5" s="21">
+      <c r="F5" s="21">
         <v>1114</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="2"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -4731,17 +4769,17 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="21"/>
+      <c r="Q5" s="2"/>
       <c r="R5" s="21"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="2"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="21"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="21"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="21"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
@@ -4753,8 +4791,8 @@
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
-      <c r="AM5" s="21"/>
-      <c r="AN5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="21"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
@@ -4766,11 +4804,11 @@
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
       <c r="AY5" s="2"/>
-      <c r="AZ5" s="2" t="s">
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="BA5" s="21"/>
-      <c r="BB5" s="2"/>
+      <c r="BB5" s="21"/>
       <c r="BC5" s="2"/>
       <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
@@ -4781,13 +4819,13 @@
       <c r="BJ5" s="2"/>
       <c r="BK5" s="2"/>
       <c r="BL5" s="2"/>
-      <c r="BM5" s="21"/>
-      <c r="BN5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="21"/>
       <c r="BO5" s="2"/>
       <c r="BP5" s="2"/>
       <c r="BQ5" s="2"/>
-      <c r="BR5" s="21"/>
-      <c r="BS5" s="2"/>
+      <c r="BR5" s="2"/>
+      <c r="BS5" s="21"/>
       <c r="BT5" s="2"/>
       <c r="BU5" s="2"/>
       <c r="BV5" s="2"/>
@@ -4809,39 +4847,40 @@
       <c r="CL5" s="2"/>
       <c r="CM5" s="2"/>
       <c r="CN5" s="2"/>
+      <c r="CO5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CK4:CK5" xr:uid="{E5568EF2-C48C-46EC-9CBA-D11A46B3D10E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CL4:CL5" xr:uid="{E5568EF2-C48C-46EC-9CBA-D11A46B3D10E}">
       <formula1>"47,48,49"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU4:BU5" xr:uid="{6A6FD16B-D146-48D4-8007-CC8AD842272C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV4:BV5" xr:uid="{6A6FD16B-D146-48D4-8007-CC8AD842272C}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS4:AS5" xr:uid="{5C410BA1-26F3-48D1-8F93-4BB3654F36DA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT4:AT5" xr:uid="{5C410BA1-26F3-48D1-8F93-4BB3654F36DA}">
       <formula1>"陰性,未確定"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN4:AN5" xr:uid="{B87D1338-0303-4100-ADBC-7DD3EF915347}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO4:AO5" xr:uid="{B87D1338-0303-4100-ADBC-7DD3EF915347}">
       <formula1>"1,2,3,4,5,6,7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH4:AH5 AV4:AV5 CB4:CB5" xr:uid="{BFDB66BF-E77F-4422-9ABE-1F1F3545F944}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI4:AI5 AW4:AW5 CC4:CC5" xr:uid="{BFDB66BF-E77F-4422-9ABE-1F1F3545F944}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L5 BB4:BB5" xr:uid="{9CC6C120-8C52-4377-BE56-70F91CEAE505}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M5 BC4:BC5" xr:uid="{9CC6C120-8C52-4377-BE56-70F91CEAE505}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR4:BR5 T4:T5 Z4:Z5 AM4:AM5 BA4:BA5 BM4:BM5 W4:W5" xr:uid="{9C2FB067-3C47-487A-B172-8EEC1A545169}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS4:BS5 U4:U5 AA4:AA5 AN4:AN5 BB4:BB5 BN4:BN5 X4:X5" xr:uid="{9C2FB067-3C47-487A-B172-8EEC1A545169}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{7A56DE9E-282B-42FE-B013-5C1A3F5739DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G5" xr:uid="{7A56DE9E-282B-42FE-B013-5C1A3F5739DE}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{13CF0A7E-2528-4479-9D23-EA74AC2DBE8A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5" xr:uid="{13CF0A7E-2528-4479-9D23-EA74AC2DBE8A}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:R5" xr:uid="{83C4FDC3-FEE9-4E00-BB8B-CFDA3A4851F5}">
-      <formula1>INDIRECT(P4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4:S5" xr:uid="{83C4FDC3-FEE9-4E00-BB8B-CFDA3A4851F5}">
+      <formula1>INDIRECT(Q4)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4852,61 +4891,61 @@
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BT4:BT5</xm:sqref>
+          <xm:sqref>BU4:BU5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C0CC183D-9033-41FA-BC59-9D4C25687520}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>BS4:BS5</xm:sqref>
+          <xm:sqref>BT4:BT5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CBFE27C4-5404-4B2F-8029-E63EDD21A9ED}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>BP4:BP5</xm:sqref>
+          <xm:sqref>BQ4:BQ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8075E563-CE4A-4116-89F8-B56DF9805CDD}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>BF4:BF5 BI4:BI5 BN4:BN5</xm:sqref>
+          <xm:sqref>BG4:BG5 BJ4:BJ5 BO4:BO5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{634FE883-BC92-4E29-A082-F69C4C3FD1D3}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AZ4:AZ5</xm:sqref>
+          <xm:sqref>BA4:BA5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5BDF0E6D-354F-4B66-91FD-7D15EEA5C177}">
           <x14:formula1>
             <xm:f>清單!$G$2:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AY4:AY5</xm:sqref>
+          <xm:sqref>AZ4:AZ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F56F497C-87AE-4721-BED1-3A145928DEDE}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>BC4:BC5 AX4:AX5 CD4:CD5 P4:P5</xm:sqref>
+          <xm:sqref>BD4:BD5 AY4:AY5 CE4:CE5 Q4:Q5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{46E2EC18-6F91-44C1-B7C2-B565257C6B8A}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>CE4:CE5</xm:sqref>
+          <xm:sqref>CF4:CF5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C741DE84-957B-4240-8B1E-C52EB21E384B}">
           <x14:formula1>
             <xm:f>清單!$T$2:$T$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G5</xm:sqref>
+          <xm:sqref>H4:H5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1EE87137-827B-4249-BDD3-3A48F560866B}">
           <x14:formula1>
             <xm:f>清單!$S$2:$S$12</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H5</xm:sqref>
+          <xm:sqref>I4:I5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
